--- a/Updates.xlsx
+++ b/Updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Full Stack\JAVA\CORE\ODIGOS\Batch-1 Nov 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262C88F0-31A0-4632-92C0-98CF15DDEF3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C14196-78BD-4A90-BF0F-6E9BFBC77AA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="75">
   <si>
     <t>Concepts</t>
   </si>
@@ -79,9 +79,6 @@
     <t>susmitha</t>
   </si>
   <si>
-    <t>https://github.com/sandeepsomavarapu/JavaFSD_Training_6-30-AM.git</t>
-  </si>
-  <si>
     <t>http://www.maamu.itgo.com/other/javaquiz1.htm</t>
   </si>
   <si>
@@ -248,6 +245,12 @@
   </si>
   <si>
     <t>java installation</t>
+  </si>
+  <si>
+    <t>https://github.com/sandeepsomavarapu/Java_Fullstack_Odigos_Nov_2023.git</t>
+  </si>
+  <si>
+    <t>java8 installation https://www.javatpoint.com/javafx-how-to-install-java</t>
   </si>
 </sst>
 </file>
@@ -301,7 +304,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -317,6 +320,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -390,7 +399,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -406,6 +415,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -689,8 +699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:M171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -700,22 +710,19 @@
     <col min="5" max="5" width="19" customWidth="1"/>
     <col min="6" max="6" width="68.44140625" customWidth="1"/>
     <col min="7" max="7" width="30.109375" customWidth="1"/>
-    <col min="8" max="8" width="37.109375" customWidth="1"/>
+    <col min="8" max="8" width="68.6640625" customWidth="1"/>
     <col min="9" max="9" width="68.109375" customWidth="1"/>
     <col min="13" max="13" width="69.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="4:9" ht="24" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D4" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>1</v>
@@ -735,41 +742,47 @@
     </row>
     <row r="5" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D5" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" s="4">
         <v>45236</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="H5" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="I5" s="3"/>
+      <c r="I5" s="13" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="6" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D6" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6" s="4">
         <v>45237</v>
       </c>
       <c r="F6" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
     </row>
     <row r="7" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D7" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="3"/>
@@ -779,7 +792,7 @@
     </row>
     <row r="8" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D8" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="3"/>
@@ -789,7 +802,7 @@
     </row>
     <row r="9" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D9" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="3"/>
@@ -801,7 +814,7 @@
     </row>
     <row r="10" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D10" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="3"/>
@@ -811,7 +824,7 @@
     </row>
     <row r="11" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D11" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="3"/>
@@ -821,19 +834,17 @@
     </row>
     <row r="12" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D12" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="I12" s="9"/>
     </row>
     <row r="13" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D13" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="3"/>
@@ -843,7 +854,7 @@
     </row>
     <row r="14" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D14" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="3"/>
@@ -853,7 +864,7 @@
     </row>
     <row r="15" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D15" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="3"/>
@@ -863,7 +874,7 @@
     </row>
     <row r="16" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D16" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="3"/>
@@ -873,7 +884,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D17" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="3"/>
@@ -883,7 +894,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D18" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="11"/>
@@ -894,7 +905,7 @@
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="D19" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="3"/>
@@ -904,7 +915,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D20" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="3"/>
@@ -914,7 +925,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D21" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="3"/>
@@ -924,7 +935,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D22" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="3"/>
@@ -934,7 +945,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D23" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="3"/>
@@ -944,7 +955,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D24" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="3"/>
@@ -957,7 +968,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D25" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="3"/>
@@ -968,7 +979,7 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D26" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="3"/>
@@ -979,7 +990,7 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D27" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="3"/>
@@ -989,7 +1000,7 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D28" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="3"/>
@@ -999,7 +1010,7 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D29" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="3"/>
@@ -1009,7 +1020,7 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D30" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="3"/>
@@ -1019,7 +1030,7 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D31" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="3"/>
@@ -1029,7 +1040,7 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D32" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="3"/>
@@ -1042,7 +1053,7 @@
     </row>
     <row r="33" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D33" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="3"/>
@@ -1052,7 +1063,7 @@
     </row>
     <row r="34" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D34" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="3"/>
@@ -1062,7 +1073,7 @@
     </row>
     <row r="35" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D35" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="3"/>
@@ -1072,7 +1083,7 @@
     </row>
     <row r="36" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D36" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="3"/>
@@ -1082,7 +1093,7 @@
     </row>
     <row r="37" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D37" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="3"/>
@@ -1092,7 +1103,7 @@
     </row>
     <row r="38" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D38" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="3"/>
@@ -1102,7 +1113,7 @@
     </row>
     <row r="39" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D39" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="3"/>
@@ -1112,7 +1123,7 @@
     </row>
     <row r="40" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D40" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="3"/>
@@ -1122,7 +1133,7 @@
     </row>
     <row r="41" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D41" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="3"/>
@@ -1132,7 +1143,7 @@
     </row>
     <row r="42" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D42" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="3"/>
@@ -1142,7 +1153,7 @@
     </row>
     <row r="43" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D43" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="3"/>
@@ -1152,7 +1163,7 @@
     </row>
     <row r="44" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D44" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="3"/>
@@ -1162,7 +1173,7 @@
     </row>
     <row r="45" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D45" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E45" s="4"/>
       <c r="F45" s="3"/>
@@ -1172,7 +1183,7 @@
     </row>
     <row r="46" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D46" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E46" s="6"/>
       <c r="F46" s="3"/>
@@ -1182,7 +1193,7 @@
     </row>
     <row r="47" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D47" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E47" s="6"/>
       <c r="F47" s="3"/>
@@ -1192,7 +1203,7 @@
     </row>
     <row r="48" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D48" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E48" s="6"/>
       <c r="F48" s="3"/>
@@ -1202,7 +1213,7 @@
     </row>
     <row r="49" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D49" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E49" s="6"/>
       <c r="F49" s="3"/>
@@ -1212,7 +1223,7 @@
     </row>
     <row r="50" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D50" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E50" s="6"/>
       <c r="F50" s="3"/>
@@ -1222,7 +1233,7 @@
     </row>
     <row r="51" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D51" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E51" s="6"/>
       <c r="F51" s="3"/>
@@ -1232,13 +1243,13 @@
     </row>
     <row r="52" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D52" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E52" s="6">
         <v>45048</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
@@ -2086,11 +2097,10 @@
   <hyperlinks>
     <hyperlink ref="M24" r:id="rId1" xr:uid="{34C8B530-A33E-4B7A-BE11-76AFC55CF670}"/>
     <hyperlink ref="I9" r:id="rId2" xr:uid="{FD119ECE-9E2E-4E1F-AB4D-5F8FD2F949A4}"/>
-    <hyperlink ref="I12" r:id="rId3" xr:uid="{548CAE75-A83E-4759-8D67-8569C4AB1486}"/>
-    <hyperlink ref="I3" r:id="rId4" xr:uid="{1D8D861E-CDBB-4089-A57B-B813ECEA241E}"/>
+    <hyperlink ref="I5" r:id="rId3" xr:uid="{1D8D861E-CDBB-4089-A57B-B813ECEA241E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 

--- a/Updates.xlsx
+++ b/Updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Full Stack\JAVA\CORE\ODIGOS\Batch-1 Nov 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{123C6027-F326-42B6-BB6D-163B78DB380D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2E4A4E-AAC4-4DD4-94A3-6DFAECBAB1A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="81">
   <si>
     <t>Concepts</t>
   </si>
@@ -263,6 +263,12 @@
   </si>
   <si>
     <t>revise compailation,execution,identifiers</t>
+  </si>
+  <si>
+    <t>Variables and datatypes</t>
+  </si>
+  <si>
+    <t>complete the assignments</t>
   </si>
 </sst>
 </file>
@@ -712,7 +718,7 @@
   <dimension ref="A3:M171"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -832,10 +838,18 @@
       <c r="D9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="3"/>
+      <c r="E9" s="4">
+        <v>45240</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="I9" s="9" t="s">
         <v>7</v>
       </c>

--- a/Updates.xlsx
+++ b/Updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Full Stack\JAVA\CORE\ODIGOS\Batch-1 Nov 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2E4A4E-AAC4-4DD4-94A3-6DFAECBAB1A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D14EA826-1CA6-4399-98B9-B7402AA5FF7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="90">
   <si>
     <t>Concepts</t>
   </si>
@@ -49,36 +49,6 @@
     <t>https://github.com/afreenfquazi/Collectiontask.git</t>
   </si>
   <si>
-    <t>https://www.eclipse.org/downloads/packages/release/2020-12/r</t>
-  </si>
-  <si>
-    <t>https://github.com/GUPTHAM/JAVA-TRAINING.git</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MIRIYALA ABHISHEK </t>
-  </si>
-  <si>
-    <t>https://github.com/Saminz123/AtibaFAtima.git</t>
-  </si>
-  <si>
-    <t>Atiba</t>
-  </si>
-  <si>
-    <t>Prem</t>
-  </si>
-  <si>
-    <t>https://github.com/premnarapogu/corejava-.git</t>
-  </si>
-  <si>
-    <t>arpita</t>
-  </si>
-  <si>
-    <t>https://github.com/asgitwork/MyJavaAssignment.git</t>
-  </si>
-  <si>
-    <t>susmitha</t>
-  </si>
-  <si>
     <t>http://www.maamu.itgo.com/other/javaquiz1.htm</t>
   </si>
   <si>
@@ -268,14 +238,71 @@
     <t>Variables and datatypes</t>
   </si>
   <si>
-    <t>complete the assignments</t>
+    <t>complete the assignments on variables and datatypes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eclipse installation and eclipse short cut and usage </t>
+  </si>
+  <si>
+    <t>Koppisetti Charan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durga Pavan Kumar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y Subha Prasanna </t>
+  </si>
+  <si>
+    <t>Rufiya</t>
+  </si>
+  <si>
+    <t>T Varsha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soma Sekhar </t>
+  </si>
+  <si>
+    <t>RajVardhan</t>
+  </si>
+  <si>
+    <t>ACHANTA SATISH</t>
+  </si>
+  <si>
+    <t>Venkata Krishna Sai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variables and examples </t>
+  </si>
+  <si>
+    <t>https://www.eclipse.org/downloads/packages/release/2022-03/r</t>
+  </si>
+  <si>
+    <t>JAVA /Eclipse Instalation</t>
+  </si>
+  <si>
+    <t>DONE</t>
+  </si>
+  <si>
+    <t>eclipse pending</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pending </t>
+  </si>
+  <si>
+    <t>pending              laptp issue</t>
+  </si>
+  <si>
+    <t>5:30PM-6:40 PM</t>
+  </si>
+  <si>
+    <t>Revise variables</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -321,8 +348,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -344,6 +388,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,7 +473,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -434,6 +490,11 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -718,7 +779,7 @@
   <dimension ref="A3:M171"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -735,12 +796,12 @@
   <sheetData>
     <row r="3" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="4:9" ht="24" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D4" s="12" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>1</v>
@@ -760,123 +821,137 @@
     </row>
     <row r="5" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D5" s="6" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E5" s="4">
         <v>45236</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D6" s="6" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E6" s="4">
         <v>45237</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D7" s="6" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E7" s="4">
         <v>45238</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D8" s="6" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E8" s="4">
         <v>45239</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D9" s="6" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E9" s="4">
         <v>45240</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="G9" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>80</v>
-      </c>
       <c r="I9" s="9" t="s">
-        <v>7</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D10" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="E10" s="4">
+        <v>45243</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D11" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="E11" s="4">
+        <v>45244</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="I11" s="3"/>
     </row>
     <row r="12" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D12" s="6" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="3"/>
@@ -886,7 +961,7 @@
     </row>
     <row r="13" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D13" s="6" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="3"/>
@@ -896,7 +971,7 @@
     </row>
     <row r="14" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D14" s="6" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="3"/>
@@ -906,7 +981,7 @@
     </row>
     <row r="15" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D15" s="6" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="3"/>
@@ -916,7 +991,7 @@
     </row>
     <row r="16" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D16" s="6" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="3"/>
@@ -926,7 +1001,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D17" s="6" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="3"/>
@@ -936,7 +1011,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D18" s="6" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="11"/>
@@ -947,7 +1022,7 @@
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="D19" s="6" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="3"/>
@@ -957,7 +1032,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D20" s="6" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="3"/>
@@ -967,7 +1042,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D21" s="6" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="3"/>
@@ -977,7 +1052,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D22" s="6" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="3"/>
@@ -987,7 +1062,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D23" s="6" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="3"/>
@@ -997,7 +1072,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D24" s="6" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="3"/>
@@ -1010,7 +1085,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D25" s="6" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="3"/>
@@ -1021,7 +1096,7 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D26" s="6" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="3"/>
@@ -1032,7 +1107,7 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D27" s="6" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="3"/>
@@ -1042,7 +1117,7 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D28" s="6" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="3"/>
@@ -1052,7 +1127,7 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D29" s="6" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="3"/>
@@ -1062,7 +1137,7 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D30" s="6" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="3"/>
@@ -1072,7 +1147,7 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D31" s="6" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="3"/>
@@ -1082,7 +1157,7 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D32" s="6" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="3"/>
@@ -1095,7 +1170,7 @@
     </row>
     <row r="33" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D33" s="6" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="3"/>
@@ -1105,7 +1180,7 @@
     </row>
     <row r="34" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D34" s="6" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="3"/>
@@ -1115,7 +1190,7 @@
     </row>
     <row r="35" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D35" s="6" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="3"/>
@@ -1125,7 +1200,7 @@
     </row>
     <row r="36" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D36" s="6" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="3"/>
@@ -1135,7 +1210,7 @@
     </row>
     <row r="37" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D37" s="6" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="3"/>
@@ -1145,7 +1220,7 @@
     </row>
     <row r="38" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D38" s="6" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="3"/>
@@ -1155,7 +1230,7 @@
     </row>
     <row r="39" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D39" s="6" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="3"/>
@@ -1165,7 +1240,7 @@
     </row>
     <row r="40" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D40" s="6" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="3"/>
@@ -1175,7 +1250,7 @@
     </row>
     <row r="41" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D41" s="6" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="3"/>
@@ -1185,7 +1260,7 @@
     </row>
     <row r="42" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D42" s="6" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="3"/>
@@ -1195,7 +1270,7 @@
     </row>
     <row r="43" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D43" s="6" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="3"/>
@@ -1205,7 +1280,7 @@
     </row>
     <row r="44" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D44" s="6" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="3"/>
@@ -1215,7 +1290,7 @@
     </row>
     <row r="45" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D45" s="6" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E45" s="4"/>
       <c r="F45" s="3"/>
@@ -1225,7 +1300,7 @@
     </row>
     <row r="46" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D46" s="6" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="E46" s="6"/>
       <c r="F46" s="3"/>
@@ -1235,7 +1310,7 @@
     </row>
     <row r="47" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D47" s="6" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E47" s="6"/>
       <c r="F47" s="3"/>
@@ -1245,7 +1320,7 @@
     </row>
     <row r="48" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D48" s="6" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E48" s="6"/>
       <c r="F48" s="3"/>
@@ -1255,7 +1330,7 @@
     </row>
     <row r="49" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D49" s="6" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="E49" s="6"/>
       <c r="F49" s="3"/>
@@ -1265,7 +1340,7 @@
     </row>
     <row r="50" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D50" s="6" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E50" s="6"/>
       <c r="F50" s="3"/>
@@ -1275,7 +1350,7 @@
     </row>
     <row r="51" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D51" s="6" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="E51" s="6"/>
       <c r="F51" s="3"/>
@@ -1285,13 +1360,13 @@
     </row>
     <row r="52" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D52" s="6" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E52" s="6">
         <v>45048</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
@@ -2138,72 +2213,104 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="M24" r:id="rId1" xr:uid="{34C8B530-A33E-4B7A-BE11-76AFC55CF670}"/>
-    <hyperlink ref="I9" r:id="rId2" xr:uid="{FD119ECE-9E2E-4E1F-AB4D-5F8FD2F949A4}"/>
-    <hyperlink ref="I5" r:id="rId3" xr:uid="{1D8D861E-CDBB-4089-A57B-B813ECEA241E}"/>
+    <hyperlink ref="I5" r:id="rId2" xr:uid="{1D8D861E-CDBB-4089-A57B-B813ECEA241E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="E7:F11"/>
+  <dimension ref="E5:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="21.6640625" customWidth="1"/>
+    <col min="5" max="5" width="23.88671875" customWidth="1"/>
     <col min="6" max="6" width="55.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="8"/>
+    <row r="5" spans="5:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="E5" s="14"/>
+      <c r="F5" s="15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="5:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="E6" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="5:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="E7" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="5:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="E8" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="5:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="E9" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" s="18"/>
+    </row>
+    <row r="10" spans="5:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="E10" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="5:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="E11" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="5:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="E12" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="5:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="E13" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="5:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="E14" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>84</v>
+      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F8" r:id="rId1" xr:uid="{B062A044-3CE2-4FA6-AC62-B9F3584D1E57}"/>
-    <hyperlink ref="F7" r:id="rId2" xr:uid="{25F889DF-3E96-4487-ABE1-3A63E39F2A6C}"/>
-    <hyperlink ref="F10" r:id="rId3" xr:uid="{D924C827-A1F7-40E0-A8FC-54F8C54F4834}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Updates.xlsx
+++ b/Updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Full Stack\JAVA\CORE\ODIGOS\Batch-1 Nov 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D14EA826-1CA6-4399-98B9-B7402AA5FF7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4E9BB0-8F4F-4B0E-AA59-81B21A54163B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="104">
   <si>
     <t>Concepts</t>
   </si>
@@ -202,9 +202,6 @@
     <t>Day-48</t>
   </si>
   <si>
-    <t>services,Case study</t>
-  </si>
-  <si>
     <t>intro about java</t>
   </si>
   <si>
@@ -271,9 +268,6 @@
     <t>Venkata Krishna Sai</t>
   </si>
   <si>
-    <t xml:space="preserve">Variables and examples </t>
-  </si>
-  <si>
     <t>https://www.eclipse.org/downloads/packages/release/2022-03/r</t>
   </si>
   <si>
@@ -283,19 +277,67 @@
     <t>DONE</t>
   </si>
   <si>
-    <t>eclipse pending</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pending </t>
-  </si>
-  <si>
-    <t>pending              laptp issue</t>
-  </si>
-  <si>
     <t>5:30PM-6:40 PM</t>
   </si>
   <si>
     <t>Revise variables</t>
+  </si>
+  <si>
+    <t>Variables and examples instance and static</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flow control </t>
+  </si>
+  <si>
+    <t>complete Assignments on flow control</t>
+  </si>
+  <si>
+    <t>5:30PM-6:52 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flow control with different examples </t>
+  </si>
+  <si>
+    <t>DOne</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>https://github.com/KOPPISETTICHARANSAI/JAVA-CLASSES.git</t>
+  </si>
+  <si>
+    <t>https://github.com/vvksai13/odigos-assignment-krishna-sai.git</t>
+  </si>
+  <si>
+    <t>https://github.com/Rufiya09/Odigos-Assignments.git</t>
+  </si>
+  <si>
+    <t>https://github.com/SomaSekhar9112/Odigos_assignment.git</t>
+  </si>
+  <si>
+    <t>https://github.com/Durgapavankumarrithub/java-.git</t>
+  </si>
+  <si>
+    <t>https://github.com/prasannasubhayasarapu/odigos.prasanna.git</t>
+  </si>
+  <si>
+    <t>pending</t>
+  </si>
+  <si>
+    <t>Git Links</t>
+  </si>
+  <si>
+    <t>Trainee Name</t>
+  </si>
+  <si>
+    <t>https://github.com/varshatigireddy/odigos-assignment.git</t>
+  </si>
+  <si>
+    <t>JVM Architecture ,import,package overview</t>
+  </si>
+  <si>
+    <t>complete Assignments on flow control exercises day-3 assignments</t>
   </si>
 </sst>
 </file>
@@ -366,7 +408,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -400,6 +442,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,7 +527,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -495,6 +549,8 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -779,7 +835,7 @@
   <dimension ref="A3:M171"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -827,13 +883,13 @@
         <v>45236</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="H5" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="I5" s="13" t="s">
         <v>7</v>
@@ -847,16 +903,16 @@
         <v>45237</v>
       </c>
       <c r="F6" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="7" spans="4:9" x14ac:dyDescent="0.3">
@@ -867,13 +923,13 @@
         <v>45238</v>
       </c>
       <c r="F7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="I7" s="3"/>
     </row>
@@ -885,13 +941,13 @@
         <v>45239</v>
       </c>
       <c r="F8" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="I8" s="3"/>
     </row>
@@ -903,16 +959,16 @@
         <v>45240</v>
       </c>
       <c r="F9" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>70</v>
-      </c>
       <c r="I9" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="4:9" x14ac:dyDescent="0.3">
@@ -923,10 +979,10 @@
         <v>45243</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -939,13 +995,13 @@
         <v>45244</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="I11" s="3"/>
     </row>
@@ -953,30 +1009,54 @@
       <c r="D12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="E12" s="4">
+        <v>45245</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>87</v>
+      </c>
       <c r="I12" s="9"/>
     </row>
     <row r="13" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="E13" s="4">
+        <v>45246</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>87</v>
+      </c>
       <c r="I13" s="3"/>
     </row>
     <row r="14" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D14" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="E14" s="4">
+        <v>45247</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="I14" s="3"/>
     </row>
     <row r="15" spans="4:9" x14ac:dyDescent="0.3">
@@ -1362,12 +1442,8 @@
       <c r="D52" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E52" s="6">
-        <v>45048</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>58</v>
-      </c>
+      <c r="E52" s="6"/>
+      <c r="F52" s="3"/>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
@@ -2222,95 +2298,138 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="E5:F14"/>
+  <dimension ref="E5:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="23.88671875" customWidth="1"/>
     <col min="6" max="6" width="55.44140625" customWidth="1"/>
+    <col min="7" max="7" width="55.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="5:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="E5" s="14"/>
+    <row r="5" spans="5:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="E5" s="14" t="s">
+        <v>100</v>
+      </c>
       <c r="F5" s="15" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="5:6" ht="18" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="5:7" ht="18" x14ac:dyDescent="0.35">
       <c r="E6" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="5:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="E7" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="F6" s="15" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="5:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="E7" s="17" t="s">
+      <c r="F7" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="5:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="E8" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="F7" s="18" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="5:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="E8" s="16" t="s">
+      <c r="F8" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="5:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="E9" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="F8" s="18" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="5:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="E9" s="17" t="s">
+      <c r="F9" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="5:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="E10" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="5:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="E11" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="F9" s="18"/>
-    </row>
-    <row r="10" spans="5:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="E10" s="14" t="s">
+      <c r="F11" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="5:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="E12" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="F10" s="18" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="5:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="E11" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="12" spans="5:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="E12" s="14" t="s">
+      <c r="F12" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="5:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="E13" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="F12" s="18" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="13" spans="5:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="E13" s="14" t="s">
+      <c r="F13" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="5:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="E14" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="18" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="14" spans="5:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="E14" s="14" t="s">
-        <v>80</v>
-      </c>
       <c r="F14" s="18" t="s">
-        <v>84</v>
+        <v>82</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G6" r:id="rId1" xr:uid="{6DEFDA65-6FBA-49A5-921E-D8A27984A55C}"/>
+    <hyperlink ref="G14" r:id="rId2" xr:uid="{80C327E7-E7CD-4424-8474-D7F1398C5D04}"/>
+    <hyperlink ref="G10" r:id="rId3" xr:uid="{25A8F732-3BA3-4C49-B649-96513759DF33}"/>
+    <hyperlink ref="G7" r:id="rId4" xr:uid="{E4496172-4595-45F7-9F32-C9C371854CEA}"/>
+    <hyperlink ref="G8" r:id="rId5" xr:uid="{8832B971-6092-42CE-8B7C-D5482EDC92AF}"/>
+    <hyperlink ref="G11" r:id="rId6" xr:uid="{B7AC1514-F5A7-4931-B67A-B42CA31F3908}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Updates.xlsx
+++ b/Updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Full Stack\JAVA\CORE\ODIGOS\Batch-1 Nov 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4E9BB0-8F4F-4B0E-AA59-81B21A54163B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC7D6A6-75F9-4592-992E-8D4D73F1C15B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="113">
   <si>
     <t>Concepts</t>
   </si>
@@ -271,9 +271,6 @@
     <t>https://www.eclipse.org/downloads/packages/release/2022-03/r</t>
   </si>
   <si>
-    <t>JAVA /Eclipse Instalation</t>
-  </si>
-  <si>
     <t>DONE</t>
   </si>
   <si>
@@ -301,9 +298,6 @@
     <t>DOne</t>
   </si>
   <si>
-    <t>Done</t>
-  </si>
-  <si>
     <t>https://github.com/KOPPISETTICHARANSAI/JAVA-CLASSES.git</t>
   </si>
   <si>
@@ -338,6 +332,39 @@
   </si>
   <si>
     <t>complete Assignments on flow control exercises day-3 assignments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trainer not available </t>
+  </si>
+  <si>
+    <t>Assignments Status 21-11-2023</t>
+  </si>
+  <si>
+    <t>done few are pending</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not Uploaded/not DONE </t>
+  </si>
+  <si>
+    <t>https://github.com/7209vardhan?tab=repositories</t>
+  </si>
+  <si>
+    <t>NOT DONE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DONE </t>
+  </si>
+  <si>
+    <t>package,import,methodss</t>
+  </si>
+  <si>
+    <t>Scanner,run time data  args</t>
+  </si>
+  <si>
+    <t>5:30PM-6:50 PM</t>
+  </si>
+  <si>
+    <t>(filename :corejava basics task) complete the assignment</t>
   </si>
 </sst>
 </file>
@@ -408,7 +435,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -436,12 +463,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,7 +548,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -546,11 +567,18 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -835,7 +863,7 @@
   <dimension ref="A3:M171"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -962,7 +990,7 @@
         <v>68</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>69</v>
@@ -995,13 +1023,13 @@
         <v>45244</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G11" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>84</v>
       </c>
       <c r="I11" s="3"/>
     </row>
@@ -1013,13 +1041,13 @@
         <v>45245</v>
       </c>
       <c r="F12" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="H12" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="I12" s="9"/>
     </row>
@@ -1031,13 +1059,13 @@
         <v>45246</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I13" s="3"/>
     </row>
@@ -1049,22 +1077,26 @@
         <v>45247</v>
       </c>
       <c r="F14" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D15" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="20">
+        <v>45250</v>
+      </c>
+      <c r="F15" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="G14" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D15" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -1073,9 +1105,15 @@
       <c r="D16" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+      <c r="E16" s="4">
+        <v>45251</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>87</v>
+      </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
     </row>
@@ -1083,10 +1121,18 @@
       <c r="D17" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="3"/>
+      <c r="E17" s="4">
+        <v>45252</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>112</v>
+      </c>
       <c r="I17" s="3"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
@@ -2301,7 +2347,7 @@
   <dimension ref="E5:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2313,112 +2359,112 @@
   <sheetData>
     <row r="5" spans="5:7" ht="18" x14ac:dyDescent="0.35">
       <c r="E5" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F5" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="5:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="E6" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G6" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="5:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="E7" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="5:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="E8" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="5:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="E9" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="5:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="E10" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="5:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="E11" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="G11" s="18" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="5:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="E6" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="5:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="E7" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="F7" s="18" t="s">
+    <row r="12" spans="5:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="E12" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="5:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="E13" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="5:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="E14" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="G14" s="16" t="s">
         <v>91</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="8" spans="5:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="E8" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="9" spans="5:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="E9" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="10" spans="5:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="E10" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="11" spans="5:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="E11" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="G11" s="20" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="12" spans="5:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="E12" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="13" spans="5:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="E13" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="G13" s="19" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="5:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="E14" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="G14" s="18" t="s">
-        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2429,6 +2475,8 @@
     <hyperlink ref="G7" r:id="rId4" xr:uid="{E4496172-4595-45F7-9F32-C9C371854CEA}"/>
     <hyperlink ref="G8" r:id="rId5" xr:uid="{8832B971-6092-42CE-8B7C-D5482EDC92AF}"/>
     <hyperlink ref="G11" r:id="rId6" xr:uid="{B7AC1514-F5A7-4931-B67A-B42CA31F3908}"/>
+    <hyperlink ref="G9" r:id="rId7" xr:uid="{3151D5C8-582B-4268-8FDB-1662FC47D7A3}"/>
+    <hyperlink ref="G12" r:id="rId8" xr:uid="{4CB52882-0397-47FE-9A31-737ABC7DD473}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Updates.xlsx
+++ b/Updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Full Stack\JAVA\CORE\ODIGOS\Batch-1 Nov 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC7D6A6-75F9-4592-992E-8D4D73F1C15B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7463A99-7DAE-46C2-A9CB-E6F5F478B2C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="115">
   <si>
     <t>Concepts</t>
   </si>
@@ -355,16 +355,22 @@
     <t xml:space="preserve">DONE </t>
   </si>
   <si>
-    <t>package,import,methodss</t>
-  </si>
-  <si>
-    <t>Scanner,run time data  args</t>
-  </si>
-  <si>
     <t>5:30PM-6:50 PM</t>
   </si>
   <si>
     <t>(filename :corejava basics task) complete the assignment</t>
+  </si>
+  <si>
+    <t>Scanner,run time data  args,wrapper classes</t>
+  </si>
+  <si>
+    <t>package,import,methods</t>
+  </si>
+  <si>
+    <t>Arrays,one,multi dimentional arrays</t>
+  </si>
+  <si>
+    <t>6:30PM-7:30PM</t>
   </si>
 </sst>
 </file>
@@ -862,8 +868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:M171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1109,7 +1115,7 @@
         <v>45251</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>87</v>
@@ -1125,13 +1131,13 @@
         <v>45252</v>
       </c>
       <c r="F17" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="H17" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>112</v>
       </c>
       <c r="I17" s="3"/>
     </row>
@@ -1139,9 +1145,15 @@
       <c r="D18" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="5"/>
+      <c r="E18" s="4">
+        <v>45253</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>114</v>
+      </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
     </row>
@@ -1150,7 +1162,9 @@
       <c r="D19" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="4"/>
+      <c r="E19" s="4">
+        <v>45254</v>
+      </c>
       <c r="F19" s="3"/>
       <c r="G19" s="5"/>
       <c r="H19" s="3"/>

--- a/Updates.xlsx
+++ b/Updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Full Stack\JAVA\CORE\ODIGOS\Batch-1 Nov 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7463A99-7DAE-46C2-A9CB-E6F5F478B2C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE78CAC5-FAAA-4AAE-92B4-39D55C887B0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="118">
   <si>
     <t>Concepts</t>
   </si>
@@ -295,9 +295,6 @@
     <t xml:space="preserve">flow control with different examples </t>
   </si>
   <si>
-    <t>DOne</t>
-  </si>
-  <si>
     <t>https://github.com/KOPPISETTICHARANSAI/JAVA-CLASSES.git</t>
   </si>
   <si>
@@ -371,6 +368,18 @@
   </si>
   <si>
     <t>6:30PM-7:30PM</t>
+  </si>
+  <si>
+    <t>OOPS</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Revision arrays,Operators overview</t>
+  </si>
+  <si>
+    <t>Operators concepts along with assignemts,Arrays Assignment(file name)</t>
   </si>
 </sst>
 </file>
@@ -868,8 +877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:M171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1083,13 +1092,13 @@
         <v>45247</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>87</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I14" s="3"/>
     </row>
@@ -1101,7 +1110,7 @@
         <v>45250</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -1115,7 +1124,7 @@
         <v>45251</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>87</v>
@@ -1131,13 +1140,13 @@
         <v>45252</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G17" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="H17" s="17" t="s">
         <v>109</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>110</v>
       </c>
       <c r="I17" s="3"/>
     </row>
@@ -1149,10 +1158,10 @@
         <v>45253</v>
       </c>
       <c r="F18" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="G18" s="5" t="s">
         <v>113</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>114</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -1165,9 +1174,15 @@
       <c r="E19" s="4">
         <v>45254</v>
       </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="3"/>
+      <c r="F19" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>117</v>
+      </c>
       <c r="I19" s="3"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
@@ -1175,7 +1190,9 @@
         <v>25</v>
       </c>
       <c r="E20" s="4"/>
-      <c r="F20" s="3"/>
+      <c r="F20" s="3" t="s">
+        <v>114</v>
+      </c>
       <c r="G20" s="5"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -2361,7 +2378,7 @@
   <dimension ref="E5:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2373,13 +2390,13 @@
   <sheetData>
     <row r="5" spans="5:7" ht="18" x14ac:dyDescent="0.35">
       <c r="E5" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="5:7" ht="18" x14ac:dyDescent="0.35">
@@ -2390,7 +2407,7 @@
         <v>81</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="5:7" ht="18" x14ac:dyDescent="0.35">
@@ -2398,10 +2415,10 @@
         <v>72</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="5:7" ht="18" x14ac:dyDescent="0.35">
@@ -2412,7 +2429,7 @@
         <v>81</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="5:7" ht="18" x14ac:dyDescent="0.35">
@@ -2420,10 +2437,10 @@
         <v>74</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="5:7" ht="18" x14ac:dyDescent="0.35">
@@ -2431,10 +2448,10 @@
         <v>76</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="5:7" ht="18" x14ac:dyDescent="0.35">
@@ -2442,10 +2459,10 @@
         <v>75</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="5:7" ht="18" x14ac:dyDescent="0.35">
@@ -2453,10 +2470,10 @@
         <v>77</v>
       </c>
       <c r="F12" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="G12" s="23" t="s">
         <v>105</v>
-      </c>
-      <c r="G12" s="23" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="13" spans="5:7" ht="18" x14ac:dyDescent="0.35">
@@ -2464,10 +2481,10 @@
         <v>78</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="5:7" ht="18" x14ac:dyDescent="0.35">
@@ -2475,10 +2492,10 @@
         <v>79</v>
       </c>
       <c r="F14" s="24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/Updates.xlsx
+++ b/Updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Full Stack\JAVA\CORE\ODIGOS\Batch-1 Nov 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE78CAC5-FAAA-4AAE-92B4-39D55C887B0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A08CBD0E-F100-436F-965F-C8CBD21C0CDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="119">
   <si>
     <t>Concepts</t>
   </si>
@@ -370,9 +370,6 @@
     <t>6:30PM-7:30PM</t>
   </si>
   <si>
-    <t>OOPS</t>
-  </si>
-  <si>
     <t>Done</t>
   </si>
   <si>
@@ -380,6 +377,12 @@
   </si>
   <si>
     <t>Operators concepts along with assignemts,Arrays Assignment(file name)</t>
+  </si>
+  <si>
+    <t>6:00pm-7pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OOPS,inheritance levels </t>
   </si>
 </sst>
 </file>
@@ -878,7 +881,7 @@
   <dimension ref="A3:M171"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1175,13 +1178,13 @@
         <v>45254</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>113</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I19" s="3"/>
     </row>
@@ -1189,11 +1192,15 @@
       <c r="D20" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="4"/>
+      <c r="E20" s="4">
+        <v>45255</v>
+      </c>
       <c r="F20" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="G20" s="5"/>
+        <v>118</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>117</v>
+      </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
     </row>
@@ -2481,7 +2488,7 @@
         <v>78</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G13" s="17" t="s">
         <v>95</v>

--- a/Updates.xlsx
+++ b/Updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Full Stack\JAVA\CORE\ODIGOS\Batch-1 Nov 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A08CBD0E-F100-436F-965F-C8CBD21C0CDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4BA0B1E-57A7-46F7-B3C2-5A840AE39631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="121">
   <si>
     <t>Concepts</t>
   </si>
@@ -383,6 +383,12 @@
   </si>
   <si>
     <t xml:space="preserve">OOPS,inheritance levels </t>
+  </si>
+  <si>
+    <t>OOPS,inheritance levels ,abstract methods,concrete methds,abstract class,interface</t>
+  </si>
+  <si>
+    <t>6:00pm-7:05pm</t>
   </si>
 </sst>
 </file>
@@ -566,7 +572,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -580,7 +586,6 @@
     <xf numFmtId="20" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -590,13 +595,21 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -881,7 +894,7 @@
   <dimension ref="A3:M171"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -902,7 +915,7 @@
       </c>
     </row>
     <row r="4" spans="4:9" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -928,7 +941,7 @@
       <c r="E5" s="4">
         <v>45236</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="26" t="s">
         <v>58</v>
       </c>
       <c r="G5" s="5" t="s">
@@ -937,7 +950,7 @@
       <c r="H5" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="12" t="s">
         <v>7</v>
       </c>
     </row>
@@ -948,7 +961,7 @@
       <c r="E6" s="4">
         <v>45237</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="26" t="s">
         <v>61</v>
       </c>
       <c r="G6" s="5" t="s">
@@ -968,7 +981,7 @@
       <c r="E7" s="4">
         <v>45238</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="26" t="s">
         <v>64</v>
       </c>
       <c r="G7" s="5" t="s">
@@ -986,7 +999,7 @@
       <c r="E8" s="4">
         <v>45239</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="26" t="s">
         <v>66</v>
       </c>
       <c r="G8" s="5" t="s">
@@ -1004,7 +1017,7 @@
       <c r="E9" s="4">
         <v>45240</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="26" t="s">
         <v>68</v>
       </c>
       <c r="G9" s="5" t="s">
@@ -1024,7 +1037,7 @@
       <c r="E10" s="4">
         <v>45243</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="26" t="s">
         <v>70</v>
       </c>
       <c r="G10" s="5" t="s">
@@ -1040,7 +1053,7 @@
       <c r="E11" s="4">
         <v>45244</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="26" t="s">
         <v>84</v>
       </c>
       <c r="G11" s="5" t="s">
@@ -1058,7 +1071,7 @@
       <c r="E12" s="4">
         <v>45245</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="26" t="s">
         <v>85</v>
       </c>
       <c r="G12" s="5" t="s">
@@ -1076,7 +1089,7 @@
       <c r="E13" s="4">
         <v>45246</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="26" t="s">
         <v>88</v>
       </c>
       <c r="G13" s="5" t="s">
@@ -1094,7 +1107,7 @@
       <c r="E14" s="4">
         <v>45247</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="26" t="s">
         <v>99</v>
       </c>
       <c r="G14" s="5" t="s">
@@ -1106,13 +1119,13 @@
       <c r="I14" s="3"/>
     </row>
     <row r="15" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="20">
+      <c r="E15" s="19">
         <v>45250</v>
       </c>
-      <c r="F15" s="21" t="s">
+      <c r="F15" s="27" t="s">
         <v>101</v>
       </c>
       <c r="G15" s="3"/>
@@ -1126,7 +1139,7 @@
       <c r="E16" s="4">
         <v>45251</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="26" t="s">
         <v>111</v>
       </c>
       <c r="G16" s="5" t="s">
@@ -1142,13 +1155,13 @@
       <c r="E17" s="4">
         <v>45252</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="26" t="s">
         <v>110</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="H17" s="17" t="s">
+      <c r="H17" s="16" t="s">
         <v>109</v>
       </c>
       <c r="I17" s="3"/>
@@ -1160,7 +1173,7 @@
       <c r="E18" s="4">
         <v>45253</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="F18" s="28" t="s">
         <v>112</v>
       </c>
       <c r="G18" s="5" t="s">
@@ -1177,13 +1190,13 @@
       <c r="E19" s="4">
         <v>45254</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="26" t="s">
         <v>115</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="H19" s="17" t="s">
+      <c r="H19" s="16" t="s">
         <v>116</v>
       </c>
       <c r="I19" s="3"/>
@@ -1193,9 +1206,9 @@
         <v>25</v>
       </c>
       <c r="E20" s="4">
-        <v>45255</v>
-      </c>
-      <c r="F20" s="3" t="s">
+        <v>45257</v>
+      </c>
+      <c r="F20" s="26" t="s">
         <v>118</v>
       </c>
       <c r="G20" s="5" t="s">
@@ -1204,13 +1217,19 @@
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D21" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="5"/>
+      <c r="E21" s="4">
+        <v>45258</v>
+      </c>
+      <c r="F21" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>120</v>
+      </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
     </row>
@@ -1219,7 +1238,7 @@
         <v>27</v>
       </c>
       <c r="E22" s="4"/>
-      <c r="F22" s="3"/>
+      <c r="F22" s="26"/>
       <c r="G22" s="5"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -1229,7 +1248,7 @@
         <v>28</v>
       </c>
       <c r="E23" s="4"/>
-      <c r="F23" s="3"/>
+      <c r="F23" s="26"/>
       <c r="G23" s="5"/>
       <c r="H23" s="3"/>
       <c r="I23" s="9"/>
@@ -1239,7 +1258,7 @@
         <v>29</v>
       </c>
       <c r="E24" s="4"/>
-      <c r="F24" s="3"/>
+      <c r="F24" s="26"/>
       <c r="G24" s="5"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
@@ -1252,7 +1271,7 @@
         <v>30</v>
       </c>
       <c r="E25" s="4"/>
-      <c r="F25" s="3"/>
+      <c r="F25" s="26"/>
       <c r="G25" s="5"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
@@ -1263,7 +1282,7 @@
         <v>31</v>
       </c>
       <c r="E26" s="4"/>
-      <c r="F26" s="3"/>
+      <c r="F26" s="26"/>
       <c r="G26" s="5"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
@@ -1274,7 +1293,7 @@
         <v>32</v>
       </c>
       <c r="E27" s="4"/>
-      <c r="F27" s="3"/>
+      <c r="F27" s="26"/>
       <c r="G27" s="5"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
@@ -1284,7 +1303,7 @@
         <v>33</v>
       </c>
       <c r="E28" s="4"/>
-      <c r="F28" s="3"/>
+      <c r="F28" s="26"/>
       <c r="G28" s="5"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
@@ -1294,7 +1313,7 @@
         <v>34</v>
       </c>
       <c r="E29" s="4"/>
-      <c r="F29" s="3"/>
+      <c r="F29" s="26"/>
       <c r="G29" s="5"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
@@ -1304,7 +1323,7 @@
         <v>35</v>
       </c>
       <c r="E30" s="4"/>
-      <c r="F30" s="3"/>
+      <c r="F30" s="26"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
@@ -1314,7 +1333,7 @@
         <v>36</v>
       </c>
       <c r="E31" s="4"/>
-      <c r="F31" s="3"/>
+      <c r="F31" s="26"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
@@ -1324,7 +1343,7 @@
         <v>37</v>
       </c>
       <c r="E32" s="4"/>
-      <c r="F32" s="3"/>
+      <c r="F32" s="26"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
@@ -1337,7 +1356,7 @@
         <v>38</v>
       </c>
       <c r="E33" s="4"/>
-      <c r="F33" s="3"/>
+      <c r="F33" s="26"/>
       <c r="G33" s="10"/>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
@@ -1347,7 +1366,7 @@
         <v>39</v>
       </c>
       <c r="E34" s="4"/>
-      <c r="F34" s="3"/>
+      <c r="F34" s="26"/>
       <c r="G34" s="10"/>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
@@ -1357,7 +1376,7 @@
         <v>40</v>
       </c>
       <c r="E35" s="4"/>
-      <c r="F35" s="3"/>
+      <c r="F35" s="26"/>
       <c r="G35" s="10"/>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
@@ -1367,7 +1386,7 @@
         <v>41</v>
       </c>
       <c r="E36" s="4"/>
-      <c r="F36" s="3"/>
+      <c r="F36" s="26"/>
       <c r="G36" s="10"/>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -1377,7 +1396,7 @@
         <v>42</v>
       </c>
       <c r="E37" s="4"/>
-      <c r="F37" s="3"/>
+      <c r="F37" s="26"/>
       <c r="G37" s="10"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
@@ -1387,7 +1406,7 @@
         <v>43</v>
       </c>
       <c r="E38" s="4"/>
-      <c r="F38" s="3"/>
+      <c r="F38" s="26"/>
       <c r="G38" s="10"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
@@ -1397,7 +1416,7 @@
         <v>44</v>
       </c>
       <c r="E39" s="4"/>
-      <c r="F39" s="3"/>
+      <c r="F39" s="26"/>
       <c r="G39" s="10"/>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
@@ -1407,7 +1426,7 @@
         <v>45</v>
       </c>
       <c r="E40" s="4"/>
-      <c r="F40" s="3"/>
+      <c r="F40" s="26"/>
       <c r="G40" s="10"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
@@ -1417,7 +1436,7 @@
         <v>46</v>
       </c>
       <c r="E41" s="4"/>
-      <c r="F41" s="3"/>
+      <c r="F41" s="26"/>
       <c r="G41" s="10"/>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
@@ -1427,7 +1446,7 @@
         <v>47</v>
       </c>
       <c r="E42" s="4"/>
-      <c r="F42" s="3"/>
+      <c r="F42" s="26"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
@@ -1437,7 +1456,7 @@
         <v>48</v>
       </c>
       <c r="E43" s="4"/>
-      <c r="F43" s="3"/>
+      <c r="F43" s="26"/>
       <c r="G43" s="10"/>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
@@ -1447,7 +1466,7 @@
         <v>49</v>
       </c>
       <c r="E44" s="4"/>
-      <c r="F44" s="3"/>
+      <c r="F44" s="26"/>
       <c r="G44" s="10"/>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
@@ -1457,7 +1476,7 @@
         <v>50</v>
       </c>
       <c r="E45" s="4"/>
-      <c r="F45" s="3"/>
+      <c r="F45" s="26"/>
       <c r="G45" s="10"/>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
@@ -1467,7 +1486,7 @@
         <v>51</v>
       </c>
       <c r="E46" s="6"/>
-      <c r="F46" s="3"/>
+      <c r="F46" s="26"/>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
@@ -1477,7 +1496,7 @@
         <v>52</v>
       </c>
       <c r="E47" s="6"/>
-      <c r="F47" s="3"/>
+      <c r="F47" s="26"/>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
@@ -1487,7 +1506,7 @@
         <v>53</v>
       </c>
       <c r="E48" s="6"/>
-      <c r="F48" s="3"/>
+      <c r="F48" s="26"/>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
@@ -1497,7 +1516,7 @@
         <v>54</v>
       </c>
       <c r="E49" s="6"/>
-      <c r="F49" s="3"/>
+      <c r="F49" s="26"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
@@ -1507,7 +1526,7 @@
         <v>55</v>
       </c>
       <c r="E50" s="6"/>
-      <c r="F50" s="3"/>
+      <c r="F50" s="26"/>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
@@ -1517,7 +1536,7 @@
         <v>56</v>
       </c>
       <c r="E51" s="6"/>
-      <c r="F51" s="3"/>
+      <c r="F51" s="26"/>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
@@ -2396,112 +2415,112 @@
   </cols>
   <sheetData>
     <row r="5" spans="5:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="14" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="6" spans="5:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="15" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="7" spans="5:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="15" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="8" spans="5:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="15" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="9" spans="5:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="F9" s="27" t="s">
+      <c r="F9" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="G9" s="22" t="s">
+      <c r="G9" s="20" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="10" spans="5:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="F10" s="24" t="s">
+      <c r="F10" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="15" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="11" spans="5:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="F11" s="24" t="s">
+      <c r="F11" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="G11" s="17" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="12" spans="5:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="E12" s="26" t="s">
+      <c r="E12" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="F12" s="24" t="s">
+      <c r="F12" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="G12" s="23" t="s">
+      <c r="G12" s="21" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="13" spans="5:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="E13" s="26" t="s">
+      <c r="E13" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="G13" s="17" t="s">
+      <c r="G13" s="16" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="14" spans="5:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="E14" s="26" t="s">
+      <c r="E14" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="24" t="s">
+      <c r="F14" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="G14" s="16" t="s">
+      <c r="G14" s="15" t="s">
         <v>90</v>
       </c>
     </row>

--- a/Updates.xlsx
+++ b/Updates.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Full Stack\JAVA\CORE\ODIGOS\Batch-1 Nov 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4BA0B1E-57A7-46F7-B3C2-5A840AE39631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7721EB5-C617-492E-ADE4-8839DA613E51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="130">
   <si>
     <t>Concepts</t>
   </si>
@@ -389,6 +389,33 @@
   </si>
   <si>
     <t>6:00pm-7:05pm</t>
+  </si>
+  <si>
+    <t>Multiple inheritance,interface,class,abstract class with examples</t>
+  </si>
+  <si>
+    <t>Multiple Inheritance with example,String,StringBuffer,StringBuilder</t>
+  </si>
+  <si>
+    <t>String,StringBuffer,StringBuilder Examples</t>
+  </si>
+  <si>
+    <t>6:15 Pm-7:10pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">String assignments </t>
+  </si>
+  <si>
+    <t>https://www.w3schools.com/java/java_ref_string.asp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">String pending methods,login app </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCQ TEST </t>
+  </si>
+  <si>
+    <t>access modifiers</t>
   </si>
 </sst>
 </file>
@@ -459,7 +486,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -499,6 +526,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -572,7 +605,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -608,6 +641,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -893,8 +932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:M171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="C24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1237,19 +1276,29 @@
       <c r="D22" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="4"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="5"/>
+      <c r="E22" s="19">
+        <v>45259</v>
+      </c>
+      <c r="F22" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="G22" s="29"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="4"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="5"/>
+      <c r="E23" s="31">
+        <v>45260</v>
+      </c>
+      <c r="F23" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>117</v>
+      </c>
       <c r="H23" s="3"/>
       <c r="I23" s="9"/>
     </row>
@@ -1257,9 +1306,15 @@
       <c r="D24" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="5"/>
+      <c r="E24" s="4">
+        <v>45261</v>
+      </c>
+      <c r="F24" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>113</v>
+      </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="M24" s="8" t="s">
@@ -1270,8 +1325,12 @@
       <c r="D25" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="26"/>
+      <c r="E25" s="4">
+        <v>45264</v>
+      </c>
+      <c r="F25" s="27" t="s">
+        <v>101</v>
+      </c>
       <c r="G25" s="5"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
@@ -1281,9 +1340,15 @@
       <c r="D26" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E26" s="4"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="5"/>
+      <c r="E26" s="4">
+        <v>45265</v>
+      </c>
+      <c r="F26" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>124</v>
+      </c>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="M26" s="8"/>
@@ -1292,18 +1357,32 @@
       <c r="D27" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E27" s="4"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
+      <c r="E27" s="4">
+        <v>45266</v>
+      </c>
+      <c r="F27" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D28" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E28" s="4"/>
-      <c r="F28" s="26"/>
+      <c r="E28" s="4">
+        <v>45267</v>
+      </c>
+      <c r="F28" s="26" t="s">
+        <v>129</v>
+      </c>
       <c r="G28" s="5"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
@@ -1312,10 +1391,14 @@
       <c r="D29" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E29" s="4"/>
+      <c r="E29" s="4">
+        <v>45268</v>
+      </c>
       <c r="F29" s="26"/>
       <c r="G29" s="5"/>
-      <c r="H29" s="3"/>
+      <c r="H29" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="I29" s="3"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
@@ -2393,9 +2476,10 @@
   <hyperlinks>
     <hyperlink ref="M24" r:id="rId1" xr:uid="{34C8B530-A33E-4B7A-BE11-76AFC55CF670}"/>
     <hyperlink ref="I5" r:id="rId2" xr:uid="{1D8D861E-CDBB-4089-A57B-B813ECEA241E}"/>
+    <hyperlink ref="I27" r:id="rId3" xr:uid="{DA931C00-4127-445C-A5B3-425638471C29}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 

--- a/Updates.xlsx
+++ b/Updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Full Stack\JAVA\CORE\ODIGOS\Batch-1 Nov 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7721EB5-C617-492E-ADE4-8839DA613E51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A40A3311-036B-4BE2-9056-EAD7B4D4A20B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="131">
   <si>
     <t>Concepts</t>
   </si>
@@ -416,6 +416,9 @@
   </si>
   <si>
     <t>access modifiers</t>
+  </si>
+  <si>
+    <t>Polymorphisam</t>
   </si>
 </sst>
 </file>
@@ -933,7 +936,7 @@
   <dimension ref="A3:M171"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1383,7 +1386,9 @@
       <c r="F28" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="G28" s="5"/>
+      <c r="G28" s="5" t="s">
+        <v>120</v>
+      </c>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
     </row>
@@ -1394,21 +1399,27 @@
       <c r="E29" s="4">
         <v>45268</v>
       </c>
-      <c r="F29" s="26"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="3" t="s">
-        <v>128</v>
-      </c>
+      <c r="F29" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="H29" s="3"/>
       <c r="I29" s="3"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D30" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E30" s="4"/>
+      <c r="E30" s="4">
+        <v>45271</v>
+      </c>
       <c r="F30" s="26"/>
       <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
+      <c r="H30" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="I30" s="3"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">

--- a/Updates.xlsx
+++ b/Updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Full Stack\JAVA\CORE\ODIGOS\Batch-1 Nov 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A40A3311-036B-4BE2-9056-EAD7B4D4A20B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F39FA97B-C2A0-4D3D-921A-DDDE71F16F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="133">
   <si>
     <t>Concepts</t>
   </si>
@@ -418,7 +418,13 @@
     <t>access modifiers</t>
   </si>
   <si>
-    <t>Polymorphisam</t>
+    <t>Polymorphisam,method overloading,type promotion,method overriding</t>
+  </si>
+  <si>
+    <t>constructor,final</t>
+  </si>
+  <si>
+    <t>Encapsulation,this,super</t>
   </si>
 </sst>
 </file>
@@ -608,7 +614,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -652,6 +658,7 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -935,7 +942,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:M171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C24" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
@@ -1415,21 +1422,27 @@
       <c r="E30" s="4">
         <v>45271</v>
       </c>
-      <c r="F30" s="26"/>
+      <c r="F30" s="26" t="s">
+        <v>131</v>
+      </c>
       <c r="G30" s="3"/>
-      <c r="H30" s="3" t="s">
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D31" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" s="19">
+        <v>45272</v>
+      </c>
+      <c r="F31" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="I30" s="3"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D31" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E31" s="4"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
       <c r="I31" s="3"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">

--- a/Updates.xlsx
+++ b/Updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Full Stack\JAVA\CORE\ODIGOS\Batch-1 Nov 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F39FA97B-C2A0-4D3D-921A-DDDE71F16F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D4BFCC-8AC7-41B4-9A62-3F247CCA997F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="133">
   <si>
     <t>Concepts</t>
   </si>
@@ -424,7 +424,7 @@
     <t>constructor,final</t>
   </si>
   <si>
-    <t>Encapsulation,this,super</t>
+    <t>this,super</t>
   </si>
 </sst>
 </file>
@@ -942,8 +942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:M171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" topLeftCell="C19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1425,7 +1425,9 @@
       <c r="F30" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="G30" s="3"/>
+      <c r="G30" s="5" t="s">
+        <v>120</v>
+      </c>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
     </row>
@@ -1439,7 +1441,9 @@
       <c r="F31" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="G31" s="33"/>
+      <c r="G31" s="5" t="s">
+        <v>120</v>
+      </c>
       <c r="H31" s="33" t="s">
         <v>128</v>
       </c>

--- a/Updates.xlsx
+++ b/Updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Full Stack\JAVA\CORE\ODIGOS\Batch-1 Nov 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D4BFCC-8AC7-41B4-9A62-3F247CCA997F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE0966B-2234-4FCE-922E-820D259F578F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="146">
   <si>
     <t>Concepts</t>
   </si>
@@ -313,9 +313,6 @@
     <t>https://github.com/prasannasubhayasarapu/odigos.prasanna.git</t>
   </si>
   <si>
-    <t>pending</t>
-  </si>
-  <si>
     <t>Git Links</t>
   </si>
   <si>
@@ -425,6 +422,48 @@
   </si>
   <si>
     <t>this,super</t>
+  </si>
+  <si>
+    <t>MCQ Test Scores</t>
+  </si>
+  <si>
+    <t>05 out of 12</t>
+  </si>
+  <si>
+    <t>19/30</t>
+  </si>
+  <si>
+    <t>Mock Interview</t>
+  </si>
+  <si>
+    <t>Mock Interview and  Assignments Checking</t>
+  </si>
+  <si>
+    <t>MCQ Test Discussion</t>
+  </si>
+  <si>
+    <t>6:00pm-7:00pm</t>
+  </si>
+  <si>
+    <t>SNO</t>
+  </si>
+  <si>
+    <t>17/30</t>
+  </si>
+  <si>
+    <t>22/30</t>
+  </si>
+  <si>
+    <t>15/30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shyam Kumar </t>
+  </si>
+  <si>
+    <t>https://github.com/satishachanta/satish-java</t>
+  </si>
+  <si>
+    <t>Encapsulation,toString</t>
   </si>
 </sst>
 </file>
@@ -479,7 +518,7 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -488,7 +527,7 @@
     <font>
       <b/>
       <u/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -614,7 +653,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -630,19 +669,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -659,6 +688,52 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -943,7 +1018,7 @@
   <dimension ref="A3:M171"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -990,7 +1065,7 @@
       <c r="E5" s="4">
         <v>45236</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="16" t="s">
         <v>58</v>
       </c>
       <c r="G5" s="5" t="s">
@@ -1010,7 +1085,7 @@
       <c r="E6" s="4">
         <v>45237</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="16" t="s">
         <v>61</v>
       </c>
       <c r="G6" s="5" t="s">
@@ -1030,7 +1105,7 @@
       <c r="E7" s="4">
         <v>45238</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="16" t="s">
         <v>64</v>
       </c>
       <c r="G7" s="5" t="s">
@@ -1048,7 +1123,7 @@
       <c r="E8" s="4">
         <v>45239</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="F8" s="16" t="s">
         <v>66</v>
       </c>
       <c r="G8" s="5" t="s">
@@ -1066,7 +1141,7 @@
       <c r="E9" s="4">
         <v>45240</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="16" t="s">
         <v>68</v>
       </c>
       <c r="G9" s="5" t="s">
@@ -1086,7 +1161,7 @@
       <c r="E10" s="4">
         <v>45243</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="F10" s="16" t="s">
         <v>70</v>
       </c>
       <c r="G10" s="5" t="s">
@@ -1102,7 +1177,7 @@
       <c r="E11" s="4">
         <v>45244</v>
       </c>
-      <c r="F11" s="26" t="s">
+      <c r="F11" s="16" t="s">
         <v>84</v>
       </c>
       <c r="G11" s="5" t="s">
@@ -1120,7 +1195,7 @@
       <c r="E12" s="4">
         <v>45245</v>
       </c>
-      <c r="F12" s="26" t="s">
+      <c r="F12" s="16" t="s">
         <v>85</v>
       </c>
       <c r="G12" s="5" t="s">
@@ -1138,7 +1213,7 @@
       <c r="E13" s="4">
         <v>45246</v>
       </c>
-      <c r="F13" s="26" t="s">
+      <c r="F13" s="16" t="s">
         <v>88</v>
       </c>
       <c r="G13" s="5" t="s">
@@ -1156,26 +1231,26 @@
       <c r="E14" s="4">
         <v>45247</v>
       </c>
-      <c r="F14" s="26" t="s">
-        <v>99</v>
+      <c r="F14" s="16" t="s">
+        <v>98</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>87</v>
       </c>
       <c r="H14" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D15" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="15">
+        <v>45250</v>
+      </c>
+      <c r="F15" s="17" t="s">
         <v>100</v>
-      </c>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D15" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="19">
-        <v>45250</v>
-      </c>
-      <c r="F15" s="27" t="s">
-        <v>101</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -1188,8 +1263,8 @@
       <c r="E16" s="4">
         <v>45251</v>
       </c>
-      <c r="F16" s="26" t="s">
-        <v>111</v>
+      <c r="F16" s="16" t="s">
+        <v>110</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>87</v>
@@ -1204,14 +1279,14 @@
       <c r="E17" s="4">
         <v>45252</v>
       </c>
-      <c r="F17" s="26" t="s">
-        <v>110</v>
+      <c r="F17" s="16" t="s">
+        <v>109</v>
       </c>
       <c r="G17" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="H17" s="13" t="s">
         <v>108</v>
-      </c>
-      <c r="H17" s="16" t="s">
-        <v>109</v>
       </c>
       <c r="I17" s="3"/>
     </row>
@@ -1222,11 +1297,11 @@
       <c r="E18" s="4">
         <v>45253</v>
       </c>
-      <c r="F18" s="28" t="s">
+      <c r="F18" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="G18" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>113</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -1239,14 +1314,14 @@
       <c r="E19" s="4">
         <v>45254</v>
       </c>
-      <c r="F19" s="26" t="s">
+      <c r="F19" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="H19" s="13" t="s">
         <v>115</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="H19" s="16" t="s">
-        <v>116</v>
       </c>
       <c r="I19" s="3"/>
     </row>
@@ -1257,11 +1332,11 @@
       <c r="E20" s="4">
         <v>45257</v>
       </c>
-      <c r="F20" s="26" t="s">
-        <v>118</v>
+      <c r="F20" s="16" t="s">
+        <v>117</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -1273,11 +1348,11 @@
       <c r="E21" s="4">
         <v>45258</v>
       </c>
-      <c r="F21" s="26" t="s">
+      <c r="F21" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="G21" s="5" t="s">
         <v>119</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>120</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -1286,28 +1361,28 @@
       <c r="D22" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="19">
+      <c r="E22" s="15">
         <v>45259</v>
       </c>
-      <c r="F22" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="G22" s="29"/>
+      <c r="F22" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="G22" s="19"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D23" s="30" t="s">
+      <c r="D23" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="31">
+      <c r="E23" s="21">
         <v>45260</v>
       </c>
-      <c r="F23" s="32" t="s">
-        <v>121</v>
+      <c r="F23" s="22" t="s">
+        <v>120</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="9"/>
@@ -1319,11 +1394,11 @@
       <c r="E24" s="4">
         <v>45261</v>
       </c>
-      <c r="F24" s="26" t="s">
-        <v>122</v>
+      <c r="F24" s="16" t="s">
+        <v>121</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
@@ -1338,8 +1413,8 @@
       <c r="E25" s="4">
         <v>45264</v>
       </c>
-      <c r="F25" s="27" t="s">
-        <v>101</v>
+      <c r="F25" s="17" t="s">
+        <v>100</v>
       </c>
       <c r="G25" s="5"/>
       <c r="H25" s="3"/>
@@ -1353,11 +1428,11 @@
       <c r="E26" s="4">
         <v>45265</v>
       </c>
-      <c r="F26" s="26" t="s">
+      <c r="F26" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="G26" s="5" t="s">
         <v>123</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>124</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
@@ -1370,17 +1445,17 @@
       <c r="E27" s="4">
         <v>45266</v>
       </c>
-      <c r="F27" s="26" t="s">
-        <v>127</v>
+      <c r="F27" s="16" t="s">
+        <v>126</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H27" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="I27" s="9" t="s">
         <v>125</v>
-      </c>
-      <c r="I27" s="9" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
@@ -1390,11 +1465,11 @@
       <c r="E28" s="4">
         <v>45267</v>
       </c>
-      <c r="F28" s="26" t="s">
-        <v>129</v>
+      <c r="F28" s="16" t="s">
+        <v>128</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
@@ -1406,11 +1481,11 @@
       <c r="E29" s="4">
         <v>45268</v>
       </c>
-      <c r="F29" s="26" t="s">
-        <v>130</v>
+      <c r="F29" s="16" t="s">
+        <v>129</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
@@ -1422,30 +1497,30 @@
       <c r="E30" s="4">
         <v>45271</v>
       </c>
-      <c r="F30" s="26" t="s">
-        <v>131</v>
+      <c r="F30" s="16" t="s">
+        <v>130</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D31" s="18" t="s">
+      <c r="D31" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="E31" s="19">
+      <c r="E31" s="21">
         <v>45272</v>
       </c>
-      <c r="F31" s="27" t="s">
-        <v>132</v>
+      <c r="F31" s="22" t="s">
+        <v>131</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="H31" s="33" t="s">
-        <v>128</v>
+        <v>119</v>
+      </c>
+      <c r="H31" s="23" t="s">
+        <v>127</v>
       </c>
       <c r="I31" s="3"/>
     </row>
@@ -1453,9 +1528,15 @@
       <c r="D32" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E32" s="4"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="3"/>
+      <c r="E32" s="21">
+        <v>45273</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>138</v>
+      </c>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
       <c r="M32" t="s">
@@ -1466,9 +1547,15 @@
       <c r="D33" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E33" s="4"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="10"/>
+      <c r="E33" s="21">
+        <v>45274</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>138</v>
+      </c>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
     </row>
@@ -1476,20 +1563,26 @@
       <c r="D34" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E34" s="4"/>
-      <c r="F34" s="26"/>
+      <c r="E34" s="21">
+        <v>45275</v>
+      </c>
+      <c r="F34" s="16"/>
       <c r="G34" s="10"/>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
     </row>
     <row r="35" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D35" s="6" t="s">
+      <c r="D35" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="E35" s="4"/>
+      <c r="E35" s="25">
+        <v>45278</v>
+      </c>
       <c r="F35" s="26"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="3"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="13" t="s">
+        <v>136</v>
+      </c>
       <c r="I35" s="3"/>
     </row>
     <row r="36" spans="4:9" x14ac:dyDescent="0.3">
@@ -1497,7 +1590,7 @@
         <v>41</v>
       </c>
       <c r="E36" s="4"/>
-      <c r="F36" s="26"/>
+      <c r="F36" s="16"/>
       <c r="G36" s="10"/>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -1507,7 +1600,7 @@
         <v>42</v>
       </c>
       <c r="E37" s="4"/>
-      <c r="F37" s="26"/>
+      <c r="F37" s="16"/>
       <c r="G37" s="10"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
@@ -1517,7 +1610,7 @@
         <v>43</v>
       </c>
       <c r="E38" s="4"/>
-      <c r="F38" s="26"/>
+      <c r="F38" s="16"/>
       <c r="G38" s="10"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
@@ -1527,7 +1620,7 @@
         <v>44</v>
       </c>
       <c r="E39" s="4"/>
-      <c r="F39" s="26"/>
+      <c r="F39" s="16"/>
       <c r="G39" s="10"/>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
@@ -1537,7 +1630,7 @@
         <v>45</v>
       </c>
       <c r="E40" s="4"/>
-      <c r="F40" s="26"/>
+      <c r="F40" s="16"/>
       <c r="G40" s="10"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
@@ -1547,7 +1640,7 @@
         <v>46</v>
       </c>
       <c r="E41" s="4"/>
-      <c r="F41" s="26"/>
+      <c r="F41" s="16"/>
       <c r="G41" s="10"/>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
@@ -1557,7 +1650,7 @@
         <v>47</v>
       </c>
       <c r="E42" s="4"/>
-      <c r="F42" s="26"/>
+      <c r="F42" s="16"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
@@ -1567,7 +1660,7 @@
         <v>48</v>
       </c>
       <c r="E43" s="4"/>
-      <c r="F43" s="26"/>
+      <c r="F43" s="16"/>
       <c r="G43" s="10"/>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
@@ -1577,7 +1670,7 @@
         <v>49</v>
       </c>
       <c r="E44" s="4"/>
-      <c r="F44" s="26"/>
+      <c r="F44" s="16"/>
       <c r="G44" s="10"/>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
@@ -1587,7 +1680,7 @@
         <v>50</v>
       </c>
       <c r="E45" s="4"/>
-      <c r="F45" s="26"/>
+      <c r="F45" s="16"/>
       <c r="G45" s="10"/>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
@@ -1597,7 +1690,7 @@
         <v>51</v>
       </c>
       <c r="E46" s="6"/>
-      <c r="F46" s="26"/>
+      <c r="F46" s="16"/>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
@@ -1607,7 +1700,7 @@
         <v>52</v>
       </c>
       <c r="E47" s="6"/>
-      <c r="F47" s="26"/>
+      <c r="F47" s="16"/>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
@@ -1617,7 +1710,7 @@
         <v>53</v>
       </c>
       <c r="E48" s="6"/>
-      <c r="F48" s="26"/>
+      <c r="F48" s="16"/>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
@@ -1627,7 +1720,7 @@
         <v>54</v>
       </c>
       <c r="E49" s="6"/>
-      <c r="F49" s="26"/>
+      <c r="F49" s="16"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
@@ -1637,7 +1730,7 @@
         <v>55</v>
       </c>
       <c r="E50" s="6"/>
-      <c r="F50" s="26"/>
+      <c r="F50" s="16"/>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
@@ -1647,7 +1740,7 @@
         <v>56</v>
       </c>
       <c r="E51" s="6"/>
-      <c r="F51" s="26"/>
+      <c r="F51" s="16"/>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
@@ -2513,128 +2606,218 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="E5:G14"/>
+  <dimension ref="D4:I15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="23.88671875" customWidth="1"/>
     <col min="6" max="6" width="55.44140625" customWidth="1"/>
-    <col min="7" max="7" width="55.33203125" customWidth="1"/>
+    <col min="7" max="7" width="62.44140625" customWidth="1"/>
+    <col min="8" max="8" width="18.77734375" customWidth="1"/>
+    <col min="9" max="9" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="5:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="E5" s="13" t="s">
+    <row r="4" spans="4:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="36">
+        <v>45272</v>
+      </c>
+      <c r="I4" s="37">
+        <v>45278</v>
+      </c>
+    </row>
+    <row r="5" spans="4:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D5" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="H5" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="I5" s="38" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="4:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D6" s="29">
+        <v>1</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="H6" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="I6" s="38"/>
+    </row>
+    <row r="7" spans="4:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D7" s="29">
+        <v>2</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="H7" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="I7" s="38"/>
+    </row>
+    <row r="8" spans="4:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D8" s="29">
+        <v>3</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="H8" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="I8" s="38"/>
+    </row>
+    <row r="9" spans="4:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D9" s="29">
+        <v>4</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="H9" s="29"/>
+      <c r="I9" s="38"/>
+    </row>
+    <row r="10" spans="4:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D10" s="29">
+        <v>5</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="G10" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="H10" s="29"/>
+      <c r="I10" s="38"/>
+    </row>
+    <row r="11" spans="4:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D11" s="29">
+        <v>6</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="G11" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="F5" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="6" spans="5:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="E6" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="5:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="E7" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="F7" s="23" t="s">
+      <c r="H11" s="29"/>
+      <c r="I11" s="38"/>
+    </row>
+    <row r="12" spans="4:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D12" s="35">
+        <v>7</v>
+      </c>
+      <c r="E12" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="G7" s="15" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="5:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="E8" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="9" spans="5:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="E9" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="F9" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" spans="5:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="E10" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="F10" s="22" t="s">
+      <c r="G12" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="G10" s="15" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="11" spans="5:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="E11" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="12" spans="5:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="E12" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="G12" s="21" t="s">
+      <c r="H12" s="29"/>
+      <c r="I12" s="38"/>
+    </row>
+    <row r="13" spans="4:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D13" s="29">
+        <v>8</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="G13" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="H13" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="I13" s="38"/>
+    </row>
+    <row r="14" spans="4:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D14" s="29">
+        <v>9</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="34" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="13" spans="5:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="E13" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="14" spans="5:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="E14" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="F14" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="G14" s="15" t="s">
+      <c r="G14" s="31" t="s">
         <v>90</v>
       </c>
+      <c r="H14" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="I14" s="38"/>
+    </row>
+    <row r="15" spans="4:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D15" s="39">
+        <v>10</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2646,6 +2829,7 @@
     <hyperlink ref="G11" r:id="rId6" xr:uid="{B7AC1514-F5A7-4931-B67A-B42CA31F3908}"/>
     <hyperlink ref="G9" r:id="rId7" xr:uid="{3151D5C8-582B-4268-8FDB-1662FC47D7A3}"/>
     <hyperlink ref="G12" r:id="rId8" xr:uid="{4CB52882-0397-47FE-9A31-737ABC7DD473}"/>
+    <hyperlink ref="G13" r:id="rId9" xr:uid="{88D1AE7E-D8AA-49BE-B622-16677C461BC7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Updates.xlsx
+++ b/Updates.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Full Stack\JAVA\CORE\ODIGOS\Batch-1 Nov 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE0966B-2234-4FCE-922E-820D259F578F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58CD0142-0855-46F3-89E0-69D4C47619AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Git Links" sheetId="2" r:id="rId2"/>
+    <sheet name="Mock Interview" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="187">
   <si>
     <t>Concepts</t>
   </si>
@@ -463,14 +464,137 @@
     <t>https://github.com/satishachanta/satish-java</t>
   </si>
   <si>
-    <t>Encapsulation,toString</t>
+    <t>14/30</t>
+  </si>
+  <si>
+    <t>Encapsulation,generation of setters and getters ,toString,constrctors…..</t>
+  </si>
+  <si>
+    <t>20/30</t>
+  </si>
+  <si>
+    <t>16/30</t>
+  </si>
+  <si>
+    <t>Participant Name</t>
+  </si>
+  <si>
+    <t>Assignment Scores</t>
+  </si>
+  <si>
+    <t>Quiz Scores/Feedback On Tech Skills</t>
+  </si>
+  <si>
+    <t>Positives</t>
+  </si>
+  <si>
+    <t>Negitives</t>
+  </si>
+  <si>
+    <t>Communication and interaction</t>
+  </si>
+  <si>
+    <t>Prasanna</t>
+  </si>
+  <si>
+    <t>need to improve</t>
+  </si>
+  <si>
+    <t>technically average need to improve a lot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">good but need to improve </t>
+  </si>
+  <si>
+    <t>all done</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">communication wise okay </t>
+  </si>
+  <si>
+    <t>technically very low need to improve</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>2 assignments pending</t>
+  </si>
+  <si>
+    <t>DurgaPavanKumar</t>
+  </si>
+  <si>
+    <t>Soma Sekhar</t>
+  </si>
+  <si>
+    <t>Satish Achanta</t>
+  </si>
+  <si>
+    <t>Varsha</t>
+  </si>
+  <si>
+    <t>AWESOME</t>
+  </si>
+  <si>
+    <t>awesome in communication</t>
+  </si>
+  <si>
+    <t>MCQ -1 Answers Discussion</t>
+  </si>
+  <si>
+    <t>Mock Interview for few members</t>
+  </si>
+  <si>
+    <t>Mock Interview for Remaining members</t>
+  </si>
+  <si>
+    <t>Exception Handling</t>
+  </si>
+  <si>
+    <t>6:15pm-7:00pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">technically good </t>
+  </si>
+  <si>
+    <t>few assignments pending</t>
+  </si>
+  <si>
+    <t>Irregular</t>
+  </si>
+  <si>
+    <t>need to improve in communication</t>
+  </si>
+  <si>
+    <t>good at technical but can improve</t>
+  </si>
+  <si>
+    <t>above average</t>
+  </si>
+  <si>
+    <t>Assignment Status</t>
+  </si>
+  <si>
+    <t>User defined Exceptions</t>
+  </si>
+  <si>
+    <t>Revise entire exception handling</t>
+  </si>
+  <si>
+    <t>File IO</t>
+  </si>
+  <si>
+    <t>Collections</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -533,8 +657,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -580,6 +712,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -653,7 +797,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -688,14 +832,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -727,11 +863,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1017,8 +1174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:M171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="C31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1551,7 +1708,7 @@
         <v>45274</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>138</v>
@@ -1566,42 +1723,62 @@
       <c r="E34" s="21">
         <v>45275</v>
       </c>
-      <c r="F34" s="16"/>
-      <c r="G34" s="10"/>
+      <c r="F34" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>138</v>
+      </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
     </row>
     <row r="35" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D35" s="24" t="s">
+      <c r="D35" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="E35" s="25">
+      <c r="E35" s="21">
         <v>45278</v>
       </c>
-      <c r="F35" s="26"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="13" t="s">
+      <c r="F35" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="H35" s="45" t="s">
         <v>136</v>
       </c>
       <c r="I35" s="3"/>
     </row>
     <row r="36" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D36" s="6" t="s">
+      <c r="D36" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="E36" s="4"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="3"/>
+      <c r="E36" s="21">
+        <v>45279</v>
+      </c>
+      <c r="F36" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="H36" s="45"/>
       <c r="I36" s="3"/>
     </row>
     <row r="37" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D37" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E37" s="4"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="10"/>
+      <c r="E37" s="21">
+        <v>45280</v>
+      </c>
+      <c r="F37" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>175</v>
+      </c>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
     </row>
@@ -1609,9 +1786,15 @@
       <c r="D38" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E38" s="4"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="10"/>
+      <c r="E38" s="21">
+        <v>45281</v>
+      </c>
+      <c r="F38" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>138</v>
+      </c>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
     </row>
@@ -1619,9 +1802,15 @@
       <c r="D39" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E39" s="4"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="10"/>
+      <c r="E39" s="21">
+        <v>45282</v>
+      </c>
+      <c r="F39" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>138</v>
+      </c>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
     </row>
@@ -1629,9 +1818,15 @@
       <c r="D40" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E40" s="4"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="10"/>
+      <c r="E40" s="4">
+        <v>45286</v>
+      </c>
+      <c r="F40" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>138</v>
+      </c>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
     </row>
@@ -1639,19 +1834,33 @@
       <c r="D41" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E41" s="4"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="3"/>
+      <c r="E41" s="4">
+        <v>45287</v>
+      </c>
+      <c r="F41" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>184</v>
+      </c>
       <c r="I41" s="3"/>
     </row>
     <row r="42" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D42" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E42" s="4"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="3"/>
+      <c r="E42" s="4">
+        <v>45288</v>
+      </c>
+      <c r="F42" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>138</v>
+      </c>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
     </row>
@@ -1659,9 +1868,15 @@
       <c r="D43" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E43" s="4"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="10"/>
+      <c r="E43" s="4">
+        <v>45289</v>
+      </c>
+      <c r="F43" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>175</v>
+      </c>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
     </row>
@@ -1670,7 +1885,9 @@
         <v>49</v>
       </c>
       <c r="E44" s="4"/>
-      <c r="F44" s="16"/>
+      <c r="F44" s="16" t="s">
+        <v>186</v>
+      </c>
       <c r="G44" s="10"/>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
@@ -1680,7 +1897,9 @@
         <v>50</v>
       </c>
       <c r="E45" s="4"/>
-      <c r="F45" s="16"/>
+      <c r="F45" s="16" t="s">
+        <v>186</v>
+      </c>
       <c r="G45" s="10"/>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
@@ -2609,7 +2828,7 @@
   <dimension ref="D4:I15"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2622,202 +2841,208 @@
   </cols>
   <sheetData>
     <row r="4" spans="4:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="36">
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="32">
         <v>45272</v>
       </c>
-      <c r="I4" s="37">
+      <c r="I4" s="33">
         <v>45278</v>
       </c>
     </row>
     <row r="5" spans="4:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="G5" s="29" t="s">
+      <c r="G5" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="H5" s="29" t="s">
+      <c r="H5" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="I5" s="38" t="s">
+      <c r="I5" s="34" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="6" spans="4:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D6" s="29">
+      <c r="D6" s="25">
         <v>1</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="F6" s="29" t="s">
+      <c r="F6" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="G6" s="31" t="s">
+      <c r="G6" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="H6" s="29" t="s">
+      <c r="H6" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="I6" s="38"/>
+      <c r="I6" s="34"/>
     </row>
     <row r="7" spans="4:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D7" s="29">
+      <c r="D7" s="25">
         <v>2</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="F7" s="32" t="s">
+      <c r="F7" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="G7" s="31" t="s">
+      <c r="G7" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="H7" s="29" t="s">
+      <c r="H7" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="I7" s="38"/>
+      <c r="I7" s="34"/>
     </row>
     <row r="8" spans="4:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D8" s="29">
+      <c r="D8" s="25">
         <v>3</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="E8" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="F8" s="31" t="s">
+      <c r="F8" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="G8" s="31" t="s">
+      <c r="G8" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="H8" s="29" t="s">
+      <c r="H8" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="I8" s="38"/>
+      <c r="I8" s="34"/>
     </row>
     <row r="9" spans="4:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D9" s="29">
+      <c r="D9" s="25">
         <v>4</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="F9" s="33" t="s">
+      <c r="F9" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="G9" s="31" t="s">
+      <c r="G9" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="H9" s="29"/>
-      <c r="I9" s="38"/>
+      <c r="H9" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="I9" s="34"/>
     </row>
     <row r="10" spans="4:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D10" s="29">
+      <c r="D10" s="25">
         <v>5</v>
       </c>
-      <c r="E10" s="30" t="s">
+      <c r="E10" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="F10" s="34" t="s">
+      <c r="F10" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="G10" s="31" t="s">
+      <c r="G10" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="H10" s="29"/>
-      <c r="I10" s="38"/>
+      <c r="H10" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="I10" s="34"/>
     </row>
     <row r="11" spans="4:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D11" s="29">
+      <c r="D11" s="25">
         <v>6</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="F11" s="34" t="s">
+      <c r="F11" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="G11" s="33" t="s">
+      <c r="G11" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="H11" s="29"/>
-      <c r="I11" s="38"/>
+      <c r="H11" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="I11" s="34"/>
     </row>
     <row r="12" spans="4:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D12" s="35">
+      <c r="D12" s="31">
         <v>7</v>
       </c>
-      <c r="E12" s="35" t="s">
+      <c r="E12" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="F12" s="34" t="s">
+      <c r="F12" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="G12" s="34" t="s">
+      <c r="G12" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="H12" s="29"/>
-      <c r="I12" s="38"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="34"/>
     </row>
     <row r="13" spans="4:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D13" s="29">
+      <c r="D13" s="25">
         <v>8</v>
       </c>
-      <c r="E13" s="30" t="s">
+      <c r="E13" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="F13" s="31" t="s">
+      <c r="F13" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="G13" s="41" t="s">
+      <c r="G13" s="36" t="s">
         <v>144</v>
       </c>
-      <c r="H13" s="29" t="s">
+      <c r="H13" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="I13" s="38"/>
+      <c r="I13" s="34"/>
     </row>
     <row r="14" spans="4:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D14" s="29">
+      <c r="D14" s="25">
         <v>9</v>
       </c>
-      <c r="E14" s="30" t="s">
+      <c r="E14" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="34" t="s">
+      <c r="F14" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="G14" s="31" t="s">
+      <c r="G14" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="H14" s="29" t="s">
+      <c r="H14" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="I14" s="38"/>
+      <c r="I14" s="34"/>
     </row>
     <row r="15" spans="4:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D15" s="39">
+      <c r="D15" s="25">
         <v>10</v>
       </c>
-      <c r="E15" s="30" t="s">
+      <c r="E15" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="35"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2833,4 +3058,334 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88A3B35A-D8AC-47FF-919D-F2263980152C}">
+  <dimension ref="E8:L22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16:L17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="6.33203125" customWidth="1"/>
+    <col min="6" max="6" width="29.21875" customWidth="1"/>
+    <col min="7" max="7" width="20.77734375" customWidth="1"/>
+    <col min="8" max="8" width="26.6640625" customWidth="1"/>
+    <col min="9" max="9" width="32.77734375" customWidth="1"/>
+    <col min="10" max="10" width="44.33203125" customWidth="1"/>
+    <col min="11" max="11" width="32.109375" customWidth="1"/>
+    <col min="12" max="12" width="32.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="8" spans="5:12" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E8" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="F8" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="G8" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="H8" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="I8" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="J8" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="K8" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="L8" s="46" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="9" spans="5:12" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E9" s="40">
+        <v>1</v>
+      </c>
+      <c r="F9" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="G9" s="40">
+        <v>9</v>
+      </c>
+      <c r="H9" s="40">
+        <v>7</v>
+      </c>
+      <c r="I9" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="J9" s="40" t="s">
+        <v>157</v>
+      </c>
+      <c r="K9" s="40" t="s">
+        <v>158</v>
+      </c>
+      <c r="L9" s="40" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="5:12" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E10" s="40">
+        <v>2</v>
+      </c>
+      <c r="F10" s="44" t="s">
+        <v>160</v>
+      </c>
+      <c r="G10" s="40">
+        <v>6</v>
+      </c>
+      <c r="H10" s="40">
+        <v>5</v>
+      </c>
+      <c r="I10" s="40" t="s">
+        <v>161</v>
+      </c>
+      <c r="J10" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="K10" s="40" t="s">
+        <v>163</v>
+      </c>
+      <c r="L10" s="40" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="11" spans="5:12" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E11" s="40">
+        <v>3</v>
+      </c>
+      <c r="F11" s="43" t="s">
+        <v>165</v>
+      </c>
+      <c r="G11" s="40">
+        <v>9</v>
+      </c>
+      <c r="H11" s="40">
+        <v>8</v>
+      </c>
+      <c r="I11" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="J11" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="K11" s="40" t="s">
+        <v>181</v>
+      </c>
+      <c r="L11" s="40" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="12" spans="5:12" ht="21" x14ac:dyDescent="0.3">
+      <c r="E12" s="40">
+        <v>4</v>
+      </c>
+      <c r="F12" s="42" t="s">
+        <v>166</v>
+      </c>
+      <c r="G12" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="I12" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="J12" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="K12" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="L12" s="40" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="5:12" ht="21" x14ac:dyDescent="0.3">
+      <c r="E13" s="40">
+        <v>5</v>
+      </c>
+      <c r="F13" s="42" t="s">
+        <v>167</v>
+      </c>
+      <c r="G13" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="H13" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="I13" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="J13" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="K13" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="L13" s="40" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="5:12" ht="21" x14ac:dyDescent="0.3">
+      <c r="E14" s="40">
+        <v>6</v>
+      </c>
+      <c r="F14" s="42" t="s">
+        <v>168</v>
+      </c>
+      <c r="G14" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="H14" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="I14" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="J14" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="K14" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="L14" s="40" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="5:12" ht="42" x14ac:dyDescent="0.3">
+      <c r="E15" s="40">
+        <v>7</v>
+      </c>
+      <c r="F15" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="G15" s="40">
+        <v>10</v>
+      </c>
+      <c r="H15" s="40">
+        <v>9</v>
+      </c>
+      <c r="I15" s="40" t="s">
+        <v>170</v>
+      </c>
+      <c r="J15" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="K15" s="40" t="s">
+        <v>169</v>
+      </c>
+      <c r="L15" s="40" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="16" spans="5:12" ht="21" x14ac:dyDescent="0.3">
+      <c r="E16" s="40">
+        <v>8</v>
+      </c>
+      <c r="F16" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="G16" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="H16" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="I16" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="J16" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="K16" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="L16" s="40" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="5:12" ht="21" x14ac:dyDescent="0.3">
+      <c r="E17" s="40">
+        <v>9</v>
+      </c>
+      <c r="F17" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="G17" s="40" t="s">
+        <v>178</v>
+      </c>
+      <c r="H17" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="I17" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="J17" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="K17" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="L17" s="40" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+    </row>
+    <row r="19" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="41"/>
+    </row>
+    <row r="20" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+    </row>
+    <row r="21" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+    </row>
+    <row r="22" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Updates.xlsx
+++ b/Updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Full Stack\JAVA\CORE\ODIGOS\Batch-1 Nov 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58CD0142-0855-46F3-89E0-69D4C47619AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1964BAB2-CFC3-4984-9495-A17F862AB7E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="189">
   <si>
     <t>Concepts</t>
   </si>
@@ -588,6 +588,12 @@
   </si>
   <si>
     <t>Collections</t>
+  </si>
+  <si>
+    <t>File IO,Serialization and Deserialization</t>
+  </si>
+  <si>
+    <t>Collections Intro</t>
   </si>
 </sst>
 </file>
@@ -1174,8 +1180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:M171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView tabSelected="1" topLeftCell="C28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1872,7 +1878,7 @@
         <v>45289</v>
       </c>
       <c r="F43" s="16" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G43" s="5" t="s">
         <v>175</v>
@@ -1884,11 +1890,15 @@
       <c r="D44" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E44" s="4"/>
+      <c r="E44" s="4">
+        <v>45293</v>
+      </c>
       <c r="F44" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="G44" s="10"/>
+        <v>188</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>138</v>
+      </c>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
     </row>
@@ -1896,7 +1906,9 @@
       <c r="D45" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E45" s="4"/>
+      <c r="E45" s="4">
+        <v>45294</v>
+      </c>
       <c r="F45" s="16" t="s">
         <v>186</v>
       </c>
@@ -1908,7 +1920,9 @@
       <c r="D46" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E46" s="6"/>
+      <c r="E46" s="4">
+        <v>45295</v>
+      </c>
       <c r="F46" s="16"/>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
@@ -1918,7 +1932,9 @@
       <c r="D47" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E47" s="6"/>
+      <c r="E47" s="4">
+        <v>45296</v>
+      </c>
       <c r="F47" s="16"/>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
@@ -1928,7 +1944,9 @@
       <c r="D48" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E48" s="6"/>
+      <c r="E48" s="6">
+        <v>45299</v>
+      </c>
       <c r="F48" s="16"/>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>

--- a/Updates.xlsx
+++ b/Updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Full Stack\JAVA\CORE\ODIGOS\Batch-1 Nov 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1964BAB2-CFC3-4984-9495-A17F862AB7E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA6FB51-A078-44E0-BB84-F06C44161E0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="190">
   <si>
     <t>Concepts</t>
   </si>
@@ -594,6 +594,9 @@
   </si>
   <si>
     <t>Collections Intro</t>
+  </si>
+  <si>
+    <t>complete assignment and revise collections (LIST)</t>
   </si>
 </sst>
 </file>
@@ -1181,7 +1184,7 @@
   <dimension ref="A3:M171"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1909,8 +1912,8 @@
       <c r="E45" s="4">
         <v>45294</v>
       </c>
-      <c r="F45" s="16" t="s">
-        <v>186</v>
+      <c r="F45" s="17" t="s">
+        <v>100</v>
       </c>
       <c r="G45" s="10"/>
       <c r="H45" s="3"/>
@@ -1923,9 +1926,15 @@
       <c r="E46" s="4">
         <v>45295</v>
       </c>
-      <c r="F46" s="16"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
+      <c r="F46" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>189</v>
+      </c>
       <c r="I46" s="3"/>
     </row>
     <row r="47" spans="4:9" x14ac:dyDescent="0.3">
@@ -1935,8 +1944,10 @@
       <c r="E47" s="4">
         <v>45296</v>
       </c>
-      <c r="F47" s="16"/>
-      <c r="G47" s="3"/>
+      <c r="F47" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="G47" s="5"/>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
     </row>

--- a/Updates.xlsx
+++ b/Updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Full Stack\JAVA\CORE\ODIGOS\Batch-1 Nov 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA6FB51-A078-44E0-BB84-F06C44161E0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B62E422-6880-461B-B9B3-7DF99454C3B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="192">
   <si>
     <t>Concepts</t>
   </si>
@@ -597,6 +597,12 @@
   </si>
   <si>
     <t>complete assignment and revise collections (LIST)</t>
+  </si>
+  <si>
+    <t>ZOOM ISSUE</t>
+  </si>
+  <si>
+    <t>Collections(LIST,SET)</t>
   </si>
 </sst>
 </file>
@@ -1184,7 +1190,7 @@
   <dimension ref="A3:M171"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1945,7 +1951,7 @@
         <v>45296</v>
       </c>
       <c r="F47" s="16" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="G47" s="5"/>
       <c r="H47" s="3"/>
@@ -1958,7 +1964,9 @@
       <c r="E48" s="6">
         <v>45299</v>
       </c>
-      <c r="F48" s="16"/>
+      <c r="F48" s="16" t="s">
+        <v>191</v>
+      </c>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>

--- a/Updates.xlsx
+++ b/Updates.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Full Stack\JAVA\CORE\ODIGOS\Batch-1 Nov 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B62E422-6880-461B-B9B3-7DF99454C3B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E93C8995-F0AA-43E0-ACA1-38FDFADB50B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="194">
   <si>
     <t>Concepts</t>
   </si>
@@ -603,6 +603,12 @@
   </si>
   <si>
     <t>Collections(LIST,SET)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAP,Comparator,Comparable </t>
+  </si>
+  <si>
+    <t>MCQ TEST</t>
   </si>
 </sst>
 </file>
@@ -1190,7 +1196,7 @@
   <dimension ref="A3:M171"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1967,7 +1973,9 @@
       <c r="F48" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="G48" s="3"/>
+      <c r="G48" s="5" t="s">
+        <v>138</v>
+      </c>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
     </row>
@@ -1975,9 +1983,15 @@
       <c r="D49" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E49" s="6"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="3"/>
+      <c r="E49" s="6">
+        <v>45300</v>
+      </c>
+      <c r="F49" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>138</v>
+      </c>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
     </row>
@@ -1985,7 +1999,9 @@
       <c r="D50" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E50" s="6"/>
+      <c r="E50" s="6">
+        <v>45301</v>
+      </c>
       <c r="F50" s="16"/>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
@@ -1995,7 +2011,9 @@
       <c r="D51" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E51" s="6"/>
+      <c r="E51" s="6">
+        <v>45302</v>
+      </c>
       <c r="F51" s="16"/>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
@@ -2005,9 +2023,13 @@
       <c r="D52" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E52" s="6"/>
+      <c r="E52" s="6">
+        <v>45303</v>
+      </c>
       <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
+      <c r="G52" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
     </row>

--- a/Updates.xlsx
+++ b/Updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Full Stack\JAVA\CORE\ODIGOS\Batch-1 Nov 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E93C8995-F0AA-43E0-ACA1-38FDFADB50B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14053BA4-FDD4-4D2A-9766-BB10B4086812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="197">
   <si>
     <t>Concepts</t>
   </si>
@@ -605,10 +605,19 @@
     <t>Collections(LIST,SET)</t>
   </si>
   <si>
-    <t xml:space="preserve">MAP,Comparator,Comparable </t>
-  </si>
-  <si>
-    <t>MCQ TEST</t>
+    <t>MAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comparator,Comparable </t>
+  </si>
+  <si>
+    <t>Multi threading</t>
+  </si>
+  <si>
+    <t>Day-49</t>
+  </si>
+  <si>
+    <t>Multi threading,life cycle,synchronization,thread communication</t>
   </si>
 </sst>
 </file>
@@ -1195,8 +1204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:M171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+    <sheetView tabSelected="1" topLeftCell="C37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51:G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2002,8 +2011,12 @@
       <c r="E50" s="6">
         <v>45301</v>
       </c>
-      <c r="F50" s="16"/>
-      <c r="G50" s="3"/>
+      <c r="F50" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>138</v>
+      </c>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
     </row>
@@ -2014,8 +2027,12 @@
       <c r="E51" s="6">
         <v>45302</v>
       </c>
-      <c r="F51" s="16"/>
-      <c r="G51" s="3"/>
+      <c r="F51" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>175</v>
+      </c>
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
     </row>
@@ -2026,18 +2043,28 @@
       <c r="E52" s="6">
         <v>45303</v>
       </c>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3" t="s">
-        <v>193</v>
+      <c r="F52" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>175</v>
       </c>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
     </row>
     <row r="53" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D53" s="6"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
+      <c r="D53" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="E53" s="6">
+        <v>45310</v>
+      </c>
+      <c r="F53" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>138</v>
+      </c>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
     </row>

--- a/Updates.xlsx
+++ b/Updates.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Full Stack\JAVA\CORE\OnlineTraining9\Sai\Java Fsd 12 th 2023 Dec\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Full Stack\JAVA\CORE\ODIGOS\Batch-1 Nov 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948273C4-16DE-415A-99AF-750DE6570575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C407CB9A-A013-462E-B54B-2DD935C3E6E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Git Links" sheetId="2" r:id="rId2"/>
+    <sheet name="Mock Interview" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="227">
   <si>
     <t>Concepts</t>
   </si>
@@ -43,6 +44,12 @@
     <t>Timings(IST)</t>
   </si>
   <si>
+    <t>https://github.com/AishwaryaGuledgudda/KTG-Assignments.git</t>
+  </si>
+  <si>
+    <t>https://github.com/afreenfquazi/Collectiontask.git</t>
+  </si>
+  <si>
     <t>http://www.maamu.itgo.com/other/javaquiz1.htm</t>
   </si>
   <si>
@@ -133,137 +140,581 @@
     <t>Day-27</t>
   </si>
   <si>
-    <t>introduction</t>
-  </si>
-  <si>
-    <t>9:30Pm-10:30pm</t>
-  </si>
-  <si>
-    <t>java,.class,compaliation,execution,compiler,overview jdk,jvm,jre</t>
-  </si>
-  <si>
-    <t>9:40Pm-10:30pm</t>
-  </si>
-  <si>
-    <t>Java Installation,eclipse</t>
-  </si>
-  <si>
-    <t>Identifiers,variables,datatypes</t>
-  </si>
-  <si>
-    <t>9:50pm-10:40pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instance and static </t>
-  </si>
-  <si>
-    <t>work on assignments  day-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JVM Architecture </t>
-  </si>
-  <si>
-    <t>RAM</t>
-  </si>
-  <si>
-    <t>https://github.com/RB0896/Full_Stack</t>
-  </si>
-  <si>
-    <t>Gomanth Sainath</t>
-  </si>
-  <si>
-    <t>https://docs.oracle.com/javase/8/docs/api/</t>
-  </si>
-  <si>
-    <t>https://github.com/GomanthSainath/Assignment-Day1.git</t>
-  </si>
-  <si>
-    <t>Dynamic data,eclipse,package,import,wrapper class</t>
-  </si>
-  <si>
-    <t>Scanner,revision of package and import in eclipse</t>
-  </si>
-  <si>
-    <t>Methods ,instance,static methods</t>
-  </si>
-  <si>
-    <t>flow control statements</t>
-  </si>
-  <si>
-    <t>Work on Assignments(Flow Control Exercises,Core java Basics Task.docx)</t>
-  </si>
-  <si>
-    <t>OOPS Intro</t>
-  </si>
-  <si>
-    <t>Inheritance and different levels abstract methods and concrete methods intro</t>
-  </si>
-  <si>
-    <t>Abstract class,interface,class,methods,MI</t>
-  </si>
-  <si>
-    <t>9:45Pm-10:45pm</t>
-  </si>
-  <si>
-    <t>OOPS Task</t>
-  </si>
-  <si>
-    <t>Access modifiers,polymorphisam(Overloading)</t>
-  </si>
-  <si>
-    <t>constructor,this,super</t>
-  </si>
-  <si>
-    <t>Overriding ,final</t>
-  </si>
-  <si>
-    <t>9:30Pm-10:25pm</t>
-  </si>
-  <si>
-    <t>Encapsulation</t>
-  </si>
-  <si>
-    <t>MCQ TEST</t>
-  </si>
-  <si>
-    <t>String tasks</t>
-  </si>
-  <si>
-    <t>String,StringBuffer,StringBuilder</t>
-  </si>
-  <si>
-    <t>Arrays</t>
-  </si>
-  <si>
-    <t>9:30Pm-10:55pm</t>
-  </si>
-  <si>
-    <t>MCQ Discussion Test</t>
+    <t>Day-28</t>
+  </si>
+  <si>
+    <t>Day-29</t>
+  </si>
+  <si>
+    <t>Day-30</t>
+  </si>
+  <si>
+    <t>Day-31</t>
+  </si>
+  <si>
+    <t>Day-32</t>
+  </si>
+  <si>
+    <t>Day-33</t>
+  </si>
+  <si>
+    <t>Day-34</t>
+  </si>
+  <si>
+    <t>Day-35</t>
+  </si>
+  <si>
+    <t>Day-36</t>
+  </si>
+  <si>
+    <t>Day-37</t>
+  </si>
+  <si>
+    <t>Day-38</t>
+  </si>
+  <si>
+    <t>Day-39</t>
+  </si>
+  <si>
+    <t>Day-40</t>
+  </si>
+  <si>
+    <t>Day-41</t>
+  </si>
+  <si>
+    <t>Day-42</t>
+  </si>
+  <si>
+    <t>Day-43</t>
+  </si>
+  <si>
+    <t>Day-44</t>
+  </si>
+  <si>
+    <t>Day-45</t>
+  </si>
+  <si>
+    <t>Day-46</t>
+  </si>
+  <si>
+    <t>Day-47</t>
+  </si>
+  <si>
+    <t>Day-48</t>
+  </si>
+  <si>
+    <t>intro about java</t>
+  </si>
+  <si>
+    <t>5:30PM-6:30 PM</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>java installation</t>
+  </si>
+  <si>
+    <t>https://github.com/sandeepsomavarapu/Java_Fullstack_Odigos_Nov_2023.git</t>
+  </si>
+  <si>
+    <t>java8 installation https://www.javatpoint.com/javafx-how-to-install-java</t>
+  </si>
+  <si>
+    <t>hello world example,compailation,execution,java,.class.jdk,jvm,jre</t>
+  </si>
+  <si>
+    <t>Helloworld example</t>
+  </si>
+  <si>
+    <t>compailation,execution,identifiers</t>
+  </si>
+  <si>
+    <t>revise compailation,execution,identifiers</t>
+  </si>
+  <si>
+    <t>Variables and datatypes</t>
+  </si>
+  <si>
+    <t>complete the assignments on variables and datatypes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eclipse installation and eclipse short cut and usage </t>
+  </si>
+  <si>
+    <t>Koppisetti Charan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durga Pavan Kumar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y Subha Prasanna </t>
+  </si>
+  <si>
+    <t>Rufiya</t>
+  </si>
+  <si>
+    <t>T Varsha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soma Sekhar </t>
+  </si>
+  <si>
+    <t>RajVardhan</t>
+  </si>
+  <si>
+    <t>ACHANTA SATISH</t>
+  </si>
+  <si>
+    <t>Venkata Krishna Sai</t>
+  </si>
+  <si>
+    <t>https://www.eclipse.org/downloads/packages/release/2022-03/r</t>
+  </si>
+  <si>
+    <t>DONE</t>
+  </si>
+  <si>
+    <t>5:30PM-6:40 PM</t>
+  </si>
+  <si>
+    <t>Revise variables</t>
+  </si>
+  <si>
+    <t>Variables and examples instance and static</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flow control </t>
+  </si>
+  <si>
+    <t>complete Assignments on flow control</t>
+  </si>
+  <si>
+    <t>5:30PM-6:52 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flow control with different examples </t>
+  </si>
+  <si>
+    <t>https://github.com/KOPPISETTICHARANSAI/JAVA-CLASSES.git</t>
+  </si>
+  <si>
+    <t>https://github.com/vvksai13/odigos-assignment-krishna-sai.git</t>
+  </si>
+  <si>
+    <t>https://github.com/Rufiya09/Odigos-Assignments.git</t>
+  </si>
+  <si>
+    <t>https://github.com/SomaSekhar9112/Odigos_assignment.git</t>
+  </si>
+  <si>
+    <t>https://github.com/Durgapavankumarrithub/java-.git</t>
+  </si>
+  <si>
+    <t>https://github.com/prasannasubhayasarapu/odigos.prasanna.git</t>
+  </si>
+  <si>
+    <t>Git Links</t>
+  </si>
+  <si>
+    <t>Trainee Name</t>
+  </si>
+  <si>
+    <t>https://github.com/varshatigireddy/odigos-assignment.git</t>
+  </si>
+  <si>
+    <t>JVM Architecture ,import,package overview</t>
+  </si>
+  <si>
+    <t>complete Assignments on flow control exercises day-3 assignments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trainer not available </t>
+  </si>
+  <si>
+    <t>Assignments Status 21-11-2023</t>
+  </si>
+  <si>
+    <t>done few are pending</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not Uploaded/not DONE </t>
+  </si>
+  <si>
+    <t>https://github.com/7209vardhan?tab=repositories</t>
+  </si>
+  <si>
+    <t>NOT DONE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DONE </t>
+  </si>
+  <si>
+    <t>5:30PM-6:50 PM</t>
+  </si>
+  <si>
+    <t>(filename :corejava basics task) complete the assignment</t>
+  </si>
+  <si>
+    <t>Scanner,run time data  args,wrapper classes</t>
+  </si>
+  <si>
+    <t>package,import,methods</t>
+  </si>
+  <si>
+    <t>Arrays,one,multi dimentional arrays</t>
+  </si>
+  <si>
+    <t>6:30PM-7:30PM</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Revision arrays,Operators overview</t>
+  </si>
+  <si>
+    <t>Operators concepts along with assignemts,Arrays Assignment(file name)</t>
+  </si>
+  <si>
+    <t>6:00pm-7pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OOPS,inheritance levels </t>
+  </si>
+  <si>
+    <t>OOPS,inheritance levels ,abstract methods,concrete methds,abstract class,interface</t>
+  </si>
+  <si>
+    <t>6:00pm-7:05pm</t>
+  </si>
+  <si>
+    <t>Multiple inheritance,interface,class,abstract class with examples</t>
+  </si>
+  <si>
+    <t>Multiple Inheritance with example,String,StringBuffer,StringBuilder</t>
+  </si>
+  <si>
+    <t>String,StringBuffer,StringBuilder Examples</t>
+  </si>
+  <si>
+    <t>6:15 Pm-7:10pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">String assignments </t>
+  </si>
+  <si>
+    <t>https://www.w3schools.com/java/java_ref_string.asp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">String pending methods,login app </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCQ TEST </t>
+  </si>
+  <si>
+    <t>access modifiers</t>
+  </si>
+  <si>
+    <t>Polymorphisam,method overloading,type promotion,method overriding</t>
+  </si>
+  <si>
+    <t>constructor,final</t>
+  </si>
+  <si>
+    <t>this,super</t>
+  </si>
+  <si>
+    <t>MCQ Test Scores</t>
+  </si>
+  <si>
+    <t>05 out of 12</t>
+  </si>
+  <si>
+    <t>19/30</t>
+  </si>
+  <si>
+    <t>Mock Interview</t>
+  </si>
+  <si>
+    <t>Mock Interview and  Assignments Checking</t>
+  </si>
+  <si>
+    <t>MCQ Test Discussion</t>
+  </si>
+  <si>
+    <t>6:00pm-7:00pm</t>
+  </si>
+  <si>
+    <t>SNO</t>
+  </si>
+  <si>
+    <t>17/30</t>
+  </si>
+  <si>
+    <t>22/30</t>
   </si>
   <si>
     <t>15/30</t>
   </si>
   <si>
+    <t xml:space="preserve">Shyam Kumar </t>
+  </si>
+  <si>
+    <t>https://github.com/satishachanta/satish-java</t>
+  </si>
+  <si>
+    <t>14/30</t>
+  </si>
+  <si>
+    <t>Encapsulation,generation of setters and getters ,toString,constrctors…..</t>
+  </si>
+  <si>
+    <t>20/30</t>
+  </si>
+  <si>
+    <t>16/30</t>
+  </si>
+  <si>
+    <t>Participant Name</t>
+  </si>
+  <si>
+    <t>Assignment Scores</t>
+  </si>
+  <si>
+    <t>Quiz Scores/Feedback On Tech Skills</t>
+  </si>
+  <si>
+    <t>Positives</t>
+  </si>
+  <si>
+    <t>Negitives</t>
+  </si>
+  <si>
+    <t>Communication and interaction</t>
+  </si>
+  <si>
+    <t>Prasanna</t>
+  </si>
+  <si>
+    <t>need to improve</t>
+  </si>
+  <si>
+    <t>technically average need to improve a lot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">good but need to improve </t>
+  </si>
+  <si>
+    <t>all done</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">communication wise okay </t>
+  </si>
+  <si>
+    <t>technically very low need to improve</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>2 assignments pending</t>
+  </si>
+  <si>
+    <t>DurgaPavanKumar</t>
+  </si>
+  <si>
+    <t>Soma Sekhar</t>
+  </si>
+  <si>
+    <t>Satish Achanta</t>
+  </si>
+  <si>
+    <t>Varsha</t>
+  </si>
+  <si>
+    <t>AWESOME</t>
+  </si>
+  <si>
+    <t>awesome in communication</t>
+  </si>
+  <si>
+    <t>MCQ -1 Answers Discussion</t>
+  </si>
+  <si>
+    <t>Mock Interview for few members</t>
+  </si>
+  <si>
+    <t>Mock Interview for Remaining members</t>
+  </si>
+  <si>
     <t>Exception Handling</t>
   </si>
   <si>
-    <t>Arrays Assignment.docx</t>
-  </si>
-  <si>
-    <t>Exception Handling Assignment Exceptions Task.docx</t>
-  </si>
-  <si>
-    <t>Overriding with exception handling,covarient return type</t>
+    <t>6:15pm-7:00pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">technically good </t>
+  </si>
+  <si>
+    <t>few assignments pending</t>
+  </si>
+  <si>
+    <t>Irregular</t>
+  </si>
+  <si>
+    <t>need to improve in communication</t>
+  </si>
+  <si>
+    <t>good at technical but can improve</t>
+  </si>
+  <si>
+    <t>above average</t>
+  </si>
+  <si>
+    <t>Assignment Status</t>
+  </si>
+  <si>
+    <t>User defined Exceptions</t>
+  </si>
+  <si>
+    <t>Revise entire exception handling</t>
   </si>
   <si>
     <t>File IO</t>
+  </si>
+  <si>
+    <t>Collections</t>
+  </si>
+  <si>
+    <t>File IO,Serialization and Deserialization</t>
+  </si>
+  <si>
+    <t>Collections Intro</t>
+  </si>
+  <si>
+    <t>complete assignment and revise collections (LIST)</t>
+  </si>
+  <si>
+    <t>ZOOM ISSUE</t>
+  </si>
+  <si>
+    <t>Collections(LIST,SET)</t>
+  </si>
+  <si>
+    <t>MAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comparator,Comparable </t>
+  </si>
+  <si>
+    <t>Multi threading</t>
+  </si>
+  <si>
+    <t>Day-49</t>
+  </si>
+  <si>
+    <t>Multi threading,life cycle,synchronization,thread communication</t>
+  </si>
+  <si>
+    <t>Day-50</t>
+  </si>
+  <si>
+    <t>Core Case Study Bank Application</t>
+  </si>
+  <si>
+    <t>Day-51</t>
+  </si>
+  <si>
+    <t>Day-52</t>
+  </si>
+  <si>
+    <t>Day-53</t>
+  </si>
+  <si>
+    <t>Core Case Study Bank Application Revision and productmanagement allocation</t>
+  </si>
+  <si>
+    <t>case study allocation</t>
+  </si>
+  <si>
+    <t>Day-54</t>
+  </si>
+  <si>
+    <t>Day-55</t>
+  </si>
+  <si>
+    <t>Day-56</t>
+  </si>
+  <si>
+    <t>Day-57</t>
+  </si>
+  <si>
+    <t>Day-58</t>
+  </si>
+  <si>
+    <t>Day-59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Java 8 features </t>
+  </si>
+  <si>
+    <t>FI,Lambda Expressions,case study revision</t>
+  </si>
+  <si>
+    <t>case study with exception handling</t>
+  </si>
+  <si>
+    <t>Day-60</t>
+  </si>
+  <si>
+    <t>Day-61</t>
+  </si>
+  <si>
+    <t>Day-62</t>
+  </si>
+  <si>
+    <t>Predeined FI,:: operator</t>
+  </si>
+  <si>
+    <t>Date and time api</t>
+  </si>
+  <si>
+    <t>Stream API</t>
+  </si>
+  <si>
+    <t>students not available</t>
+  </si>
+  <si>
+    <t>Mysql Queries</t>
+  </si>
+  <si>
+    <t>Database (MYSQl) installation</t>
+  </si>
+  <si>
+    <t>Day-63</t>
+  </si>
+  <si>
+    <t>Day-64</t>
+  </si>
+  <si>
+    <t>Mysql Queries,constraints</t>
+  </si>
+  <si>
+    <t>Mysql Joins,JDBC</t>
+  </si>
+  <si>
+    <t>JDBC Case Study</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -309,8 +760,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -331,7 +807,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,9 +909,7 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -407,7 +917,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -422,8 +932,85 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -707,8 +1294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:M171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="C58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H68" sqref="H68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -716,28 +1303,26 @@
     <col min="3" max="3" width="6.21875" customWidth="1"/>
     <col min="4" max="4" width="10.5546875" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="79.6640625" customWidth="1"/>
+    <col min="6" max="6" width="68.44140625" customWidth="1"/>
     <col min="7" max="7" width="30.109375" customWidth="1"/>
-    <col min="8" max="8" width="71.109375" customWidth="1"/>
+    <col min="8" max="8" width="68.6640625" customWidth="1"/>
     <col min="9" max="9" width="68.109375" customWidth="1"/>
     <col min="13" max="13" width="69.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F3" s="13"/>
       <c r="H3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="8"/>
+        <v>8</v>
+      </c>
     </row>
     <row r="4" spans="4:9" ht="24" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D4" s="11" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
@@ -752,236 +1337,248 @@
     </row>
     <row r="5" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D5" s="6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E5" s="4">
-        <v>45272</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>35</v>
+        <v>45236</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="9" t="s">
-        <v>5</v>
+        <v>59</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D6" s="6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E6" s="4">
-        <v>45273</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>37</v>
+        <v>45237</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>61</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I6" s="3"/>
+        <v>63</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="7" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D7" s="6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E7" s="4">
-        <v>45274</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>40</v>
+        <v>45238</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>64</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" s="3"/>
+        <v>59</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D8" s="6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E8" s="4">
-        <v>45275</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>42</v>
+        <v>45239</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>66</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D9" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E9" s="4">
-        <v>45278</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>44</v>
+        <v>45240</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>68</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="I9" s="9" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D10" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E10" s="4">
-        <v>45279</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>50</v>
+        <v>45243</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>70</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D11" s="6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E11" s="4">
-        <v>45280</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>51</v>
+        <v>45244</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>84</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="I11" s="3"/>
     </row>
     <row r="12" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D12" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E12" s="4">
-        <v>45281</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>52</v>
+        <v>45245</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>85</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H12" s="3"/>
+        <v>87</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="I12" s="9"/>
     </row>
     <row r="13" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D13" s="6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E13" s="4">
-        <v>45282</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>53</v>
+        <v>45246</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>88</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="I13" s="3"/>
     </row>
     <row r="14" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D14" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E14" s="4">
-        <v>45286</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>55</v>
+        <v>45247</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>98</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H14" s="3"/>
+        <v>87</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="I14" s="3"/>
     </row>
     <row r="15" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D15" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="4">
-        <v>45287</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>36</v>
-      </c>
+      <c r="D15" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="15">
+        <v>45250</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="G15" s="3"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="9"/>
+      <c r="I15" s="3"/>
     </row>
     <row r="16" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D16" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E16" s="4">
-        <v>45288</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>57</v>
+        <v>45251</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>110</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D17" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E17" s="4">
-        <v>45289</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>60</v>
+        <v>45252</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>109</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>59</v>
+        <v>107</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>108</v>
       </c>
       <c r="I17" s="3"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D18" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E18" s="4">
-        <v>45293</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>62</v>
+        <v>45253</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>111</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>63</v>
+        <v>112</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -989,136 +1586,130 @@
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="D19" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E19" s="4">
-        <v>45294</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>61</v>
+        <v>45254</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>114</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H19" s="3"/>
+        <v>112</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>115</v>
+      </c>
       <c r="I19" s="3"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D20" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E20" s="4">
-        <v>45295</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>64</v>
+        <v>45257</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>117</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>36</v>
+        <v>116</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D21" s="6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E21" s="4">
-        <v>45296</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>67</v>
+        <v>45258</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>118</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>66</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="H21" s="3"/>
       <c r="I21" s="3"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D22" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22" s="4">
-        <v>45301</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>65</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="E22" s="15">
+        <v>45259</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="G22" s="19"/>
+      <c r="H22" s="3"/>
       <c r="I22" s="3"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D23" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" s="4">
-        <v>45302</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>70</v>
+      <c r="D23" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="21">
+        <v>45260</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>120</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>69</v>
+        <v>116</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="9"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D24" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E24" s="4">
-        <v>45303</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>68</v>
+        <v>45261</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>121</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>36</v>
+        <v>112</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
-      <c r="M24" s="8"/>
+      <c r="M24" s="8" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D25" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E25" s="4">
-        <v>45309</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>73</v>
-      </c>
+        <v>45264</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="G25" s="5"/>
+      <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="M25" s="8"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D26" s="6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E26" s="4">
-        <v>45310</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>72</v>
+        <v>45265</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>122</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
@@ -1126,776 +1717,1160 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D27" s="6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E27" s="4">
-        <v>45313</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>72</v>
+        <v>45266</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>126</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>36</v>
+        <v>119</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="I27" s="3"/>
+        <v>124</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D28" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E28" s="4">
-        <v>45314</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>75</v>
+        <v>45267</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>128</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>36</v>
+        <v>119</v>
       </c>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D29" s="6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E29" s="4">
-        <v>45315</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>76</v>
+        <v>45268</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>129</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>36</v>
+        <v>119</v>
       </c>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D30" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E30" s="4">
-        <v>45316</v>
-      </c>
-      <c r="F30" s="3"/>
-      <c r="G30" s="5"/>
+        <v>45271</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>119</v>
+      </c>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D31" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E31" s="4">
-        <v>45317</v>
-      </c>
-      <c r="F31" s="3"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="3"/>
+      <c r="D31" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" s="21">
+        <v>45272</v>
+      </c>
+      <c r="F31" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="H31" s="23" t="s">
+        <v>127</v>
+      </c>
       <c r="I31" s="3"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D32" s="6"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
+      <c r="D32" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E32" s="21">
+        <v>45273</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>138</v>
+      </c>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
+      <c r="M32" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="33" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D33" s="6"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="10"/>
+      <c r="D33" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E33" s="21">
+        <v>45274</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>138</v>
+      </c>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
     </row>
     <row r="34" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D34" s="6"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="10"/>
+      <c r="D34" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E34" s="21">
+        <v>45275</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>138</v>
+      </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
     </row>
     <row r="35" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D35" s="6"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="3"/>
+      <c r="D35" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E35" s="21">
+        <v>45278</v>
+      </c>
+      <c r="F35" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="H35" s="45" t="s">
+        <v>136</v>
+      </c>
       <c r="I35" s="3"/>
     </row>
     <row r="36" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D36" s="6"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="3"/>
+      <c r="D36" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E36" s="21">
+        <v>45279</v>
+      </c>
+      <c r="F36" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="H36" s="45"/>
       <c r="I36" s="3"/>
     </row>
     <row r="37" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D37" s="6"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="10"/>
+      <c r="D37" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E37" s="21">
+        <v>45280</v>
+      </c>
+      <c r="F37" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>175</v>
+      </c>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
     </row>
     <row r="38" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D38" s="6"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="10"/>
+      <c r="D38" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E38" s="21">
+        <v>45281</v>
+      </c>
+      <c r="F38" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>138</v>
+      </c>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
     </row>
     <row r="39" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D39" s="6"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="10"/>
+      <c r="D39" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E39" s="21">
+        <v>45282</v>
+      </c>
+      <c r="F39" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>138</v>
+      </c>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
     </row>
     <row r="40" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D40" s="6"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="10"/>
+      <c r="D40" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E40" s="4">
+        <v>45286</v>
+      </c>
+      <c r="F40" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>138</v>
+      </c>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
     </row>
     <row r="41" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D41" s="6"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="3"/>
+      <c r="D41" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E41" s="4">
+        <v>45287</v>
+      </c>
+      <c r="F41" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>184</v>
+      </c>
       <c r="I41" s="3"/>
     </row>
     <row r="42" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D42" s="6"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
+      <c r="D42" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E42" s="4">
+        <v>45288</v>
+      </c>
+      <c r="F42" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>138</v>
+      </c>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
     </row>
     <row r="43" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D43" s="6"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="10"/>
+      <c r="D43" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E43" s="4">
+        <v>45289</v>
+      </c>
+      <c r="F43" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>175</v>
+      </c>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
     </row>
     <row r="44" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D44" s="6"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="10"/>
+      <c r="D44" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E44" s="4">
+        <v>45293</v>
+      </c>
+      <c r="F44" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>138</v>
+      </c>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
     </row>
     <row r="45" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D45" s="6"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="3"/>
+      <c r="D45" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E45" s="4">
+        <v>45294</v>
+      </c>
+      <c r="F45" s="17" t="s">
+        <v>100</v>
+      </c>
       <c r="G45" s="10"/>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
     </row>
     <row r="46" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
+      <c r="D46" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E46" s="4">
+        <v>45295</v>
+      </c>
+      <c r="F46" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>189</v>
+      </c>
       <c r="I46" s="3"/>
     </row>
     <row r="47" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
+      <c r="D47" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E47" s="4">
+        <v>45296</v>
+      </c>
+      <c r="F47" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="G47" s="5"/>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
     </row>
     <row r="48" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
+      <c r="D48" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E48" s="6">
+        <v>45299</v>
+      </c>
+      <c r="F48" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>138</v>
+      </c>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
     </row>
     <row r="49" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
+      <c r="D49" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E49" s="6">
+        <v>45300</v>
+      </c>
+      <c r="F49" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>138</v>
+      </c>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
     </row>
     <row r="50" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
+      <c r="D50" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E50" s="6">
+        <v>45301</v>
+      </c>
+      <c r="F50" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>138</v>
+      </c>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
     </row>
     <row r="51" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
+      <c r="D51" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E51" s="6">
+        <v>45302</v>
+      </c>
+      <c r="F51" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>175</v>
+      </c>
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
     </row>
     <row r="52" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
+      <c r="D52" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E52" s="6">
+        <v>45303</v>
+      </c>
+      <c r="F52" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>175</v>
+      </c>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
     </row>
     <row r="53" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D53" s="6"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
+      <c r="D53" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="E53" s="6">
+        <v>45310</v>
+      </c>
+      <c r="F53" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>138</v>
+      </c>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
     </row>
     <row r="54" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D54" s="6"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
+      <c r="D54" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="E54" s="6">
+        <v>45313</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>138</v>
+      </c>
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
     </row>
     <row r="55" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D55" s="6"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
+      <c r="D55" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="E55" s="6">
+        <v>45314</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>138</v>
+      </c>
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
     </row>
     <row r="56" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D56" s="6"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
+      <c r="D56" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="E56" s="6">
+        <v>45315</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>138</v>
+      </c>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
     </row>
     <row r="57" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
+      <c r="D57" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="E57" s="6">
+        <v>45316</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>203</v>
+      </c>
       <c r="I57" s="3"/>
     </row>
     <row r="58" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
+      <c r="D58" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="E58" s="6">
+        <v>45317</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>138</v>
+      </c>
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
     </row>
     <row r="59" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
+      <c r="D59" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="E59" s="6">
+        <v>45323</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>138</v>
+      </c>
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
     </row>
     <row r="60" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
+      <c r="D60" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="E60" s="6">
+        <v>45324</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>138</v>
+      </c>
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
     </row>
     <row r="61" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
+      <c r="D61" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="E61" s="6">
+        <v>45327</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>138</v>
+      </c>
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
     </row>
     <row r="62" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
+      <c r="D62" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="E62" s="6">
+        <v>45328</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>138</v>
+      </c>
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
     </row>
     <row r="63" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
+      <c r="D63" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="E63" s="6">
+        <v>45329</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>138</v>
+      </c>
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
     </row>
     <row r="64" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
+      <c r="D64" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="E64" s="6">
+        <v>45330</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>138</v>
+      </c>
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
     </row>
-    <row r="65" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
+    <row r="65" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D65" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="E65" s="6">
+        <v>45331</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>219</v>
+      </c>
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
     </row>
-    <row r="66" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
+    <row r="66" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D66" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="E66" s="6">
+        <v>45334</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>138</v>
+      </c>
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
     </row>
-    <row r="67" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
+    <row r="67" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D67" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="E67" s="6">
+        <v>45335</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>138</v>
+      </c>
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
     </row>
-    <row r="68" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
-      <c r="H68" s="3"/>
+    <row r="68" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D68" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="E68" s="6">
+        <v>45338</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>226</v>
+      </c>
       <c r="I68" s="3"/>
     </row>
-    <row r="69" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D69" s="6"/>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
       <c r="I69" s="3"/>
     </row>
-    <row r="70" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D70" s="6"/>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
       <c r="I70" s="3"/>
     </row>
-    <row r="71" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D71" s="6"/>
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
       <c r="I71" s="3"/>
     </row>
-    <row r="72" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D72" s="6"/>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
       <c r="I72" s="3"/>
     </row>
-    <row r="73" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D73" s="6"/>
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
       <c r="I73" s="3"/>
     </row>
-    <row r="74" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D74" s="6"/>
       <c r="E74" s="3"/>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
       <c r="I74" s="3"/>
     </row>
-    <row r="75" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D75" s="6"/>
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
       <c r="I75" s="3"/>
     </row>
-    <row r="76" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D76" s="6"/>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
       <c r="I76" s="3"/>
     </row>
-    <row r="77" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D77" s="6"/>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
       <c r="I77" s="3"/>
     </row>
-    <row r="78" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D78" s="6"/>
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
     </row>
-    <row r="79" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D79" s="6"/>
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
       <c r="H79" s="3"/>
       <c r="I79" s="3"/>
     </row>
-    <row r="80" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D80" s="6"/>
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
       <c r="H80" s="3"/>
       <c r="I80" s="3"/>
     </row>
-    <row r="81" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D81" s="6"/>
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
       <c r="H81" s="3"/>
       <c r="I81" s="3"/>
     </row>
-    <row r="82" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D82" s="6"/>
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
       <c r="I82" s="3"/>
     </row>
-    <row r="83" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D83" s="6"/>
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
     </row>
-    <row r="84" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D84" s="6"/>
       <c r="E84" s="3"/>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
       <c r="I84" s="3"/>
     </row>
-    <row r="85" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D85" s="6"/>
       <c r="E85" s="3"/>
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
       <c r="H85" s="3"/>
       <c r="I85" s="3"/>
     </row>
-    <row r="86" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D86" s="6"/>
       <c r="E86" s="3"/>
       <c r="F86" s="3"/>
       <c r="G86" s="3"/>
       <c r="H86" s="3"/>
       <c r="I86" s="3"/>
     </row>
-    <row r="87" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D87" s="6"/>
       <c r="E87" s="3"/>
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
       <c r="I87" s="3"/>
     </row>
-    <row r="88" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D88" s="6"/>
       <c r="E88" s="3"/>
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
       <c r="I88" s="3"/>
     </row>
-    <row r="89" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D89" s="6"/>
       <c r="E89" s="3"/>
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
       <c r="H89" s="3"/>
       <c r="I89" s="3"/>
     </row>
-    <row r="90" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D90" s="6"/>
       <c r="E90" s="3"/>
       <c r="F90" s="3"/>
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
       <c r="I90" s="3"/>
     </row>
-    <row r="91" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D91" s="6"/>
       <c r="E91" s="3"/>
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
       <c r="H91" s="3"/>
       <c r="I91" s="3"/>
     </row>
-    <row r="92" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D92" s="6"/>
       <c r="E92" s="3"/>
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
       <c r="I92" s="3"/>
     </row>
-    <row r="93" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D93" s="6"/>
       <c r="E93" s="3"/>
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
       <c r="I93" s="3"/>
     </row>
-    <row r="94" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D94" s="6"/>
       <c r="E94" s="3"/>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
       <c r="I94" s="3"/>
     </row>
-    <row r="95" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D95" s="6"/>
       <c r="E95" s="3"/>
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
       <c r="I95" s="3"/>
     </row>
-    <row r="96" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D96" s="6"/>
       <c r="E96" s="3"/>
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
       <c r="H96" s="3"/>
       <c r="I96" s="3"/>
     </row>
-    <row r="97" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D97" s="6"/>
       <c r="E97" s="3"/>
       <c r="F97" s="3"/>
       <c r="G97" s="3"/>
       <c r="H97" s="3"/>
       <c r="I97" s="3"/>
     </row>
-    <row r="98" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D98" s="6"/>
       <c r="E98" s="3"/>
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
       <c r="H98" s="3"/>
       <c r="I98" s="3"/>
     </row>
-    <row r="99" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D99" s="6"/>
       <c r="E99" s="3"/>
       <c r="F99" s="3"/>
       <c r="G99" s="3"/>
       <c r="H99" s="3"/>
       <c r="I99" s="3"/>
     </row>
-    <row r="100" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D100" s="6"/>
       <c r="E100" s="3"/>
       <c r="F100" s="3"/>
       <c r="G100" s="3"/>
       <c r="H100" s="3"/>
       <c r="I100" s="3"/>
     </row>
-    <row r="101" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D101" s="6"/>
       <c r="E101" s="3"/>
       <c r="F101" s="3"/>
       <c r="G101" s="3"/>
       <c r="H101" s="3"/>
       <c r="I101" s="3"/>
     </row>
-    <row r="102" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D102" s="6"/>
       <c r="E102" s="3"/>
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
       <c r="H102" s="3"/>
       <c r="I102" s="3"/>
     </row>
-    <row r="103" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D103" s="6"/>
       <c r="E103" s="3"/>
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
       <c r="H103" s="3"/>
       <c r="I103" s="3"/>
     </row>
-    <row r="104" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D104" s="6"/>
       <c r="E104" s="3"/>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
       <c r="H104" s="3"/>
       <c r="I104" s="3"/>
     </row>
-    <row r="105" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D105" s="6"/>
       <c r="E105" s="3"/>
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
       <c r="H105" s="3"/>
       <c r="I105" s="3"/>
     </row>
-    <row r="106" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D106" s="6"/>
       <c r="E106" s="3"/>
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
       <c r="H106" s="3"/>
       <c r="I106" s="3"/>
     </row>
-    <row r="107" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D107" s="6"/>
       <c r="E107" s="3"/>
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
       <c r="H107" s="3"/>
       <c r="I107" s="3"/>
     </row>
-    <row r="108" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D108" s="6"/>
       <c r="E108" s="3"/>
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
       <c r="H108" s="3"/>
       <c r="I108" s="3"/>
     </row>
-    <row r="109" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D109" s="6"/>
       <c r="E109" s="3"/>
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
       <c r="H109" s="3"/>
       <c r="I109" s="3"/>
     </row>
-    <row r="110" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D110" s="6"/>
       <c r="E110" s="3"/>
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
       <c r="H110" s="3"/>
       <c r="I110" s="3"/>
     </row>
-    <row r="111" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D111" s="6"/>
       <c r="E111" s="3"/>
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
       <c r="H111" s="3"/>
       <c r="I111" s="3"/>
     </row>
-    <row r="112" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D112" s="6"/>
       <c r="E112" s="3"/>
       <c r="F112" s="3"/>
       <c r="G112" s="3"/>
       <c r="H112" s="3"/>
       <c r="I112" s="3"/>
     </row>
-    <row r="113" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D113" s="6"/>
       <c r="E113" s="3"/>
       <c r="F113" s="3"/>
       <c r="G113" s="3"/>
       <c r="H113" s="3"/>
       <c r="I113" s="3"/>
     </row>
-    <row r="114" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D114" s="6"/>
       <c r="E114" s="3"/>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
       <c r="H114" s="3"/>
       <c r="I114" s="3"/>
     </row>
-    <row r="115" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D115" s="6"/>
       <c r="E115" s="3"/>
       <c r="F115" s="3"/>
       <c r="G115" s="3"/>
       <c r="H115" s="3"/>
       <c r="I115" s="3"/>
     </row>
-    <row r="116" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D116" s="6"/>
       <c r="E116" s="3"/>
       <c r="F116" s="3"/>
       <c r="G116" s="3"/>
       <c r="H116" s="3"/>
       <c r="I116" s="3"/>
     </row>
-    <row r="117" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D117" s="6"/>
       <c r="E117" s="3"/>
       <c r="F117" s="3"/>
       <c r="G117" s="3"/>
       <c r="H117" s="3"/>
       <c r="I117" s="3"/>
     </row>
-    <row r="118" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D118" s="6"/>
       <c r="E118" s="3"/>
       <c r="F118" s="3"/>
       <c r="G118" s="3"/>
       <c r="H118" s="3"/>
       <c r="I118" s="3"/>
     </row>
-    <row r="119" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D119" s="6"/>
       <c r="E119" s="3"/>
       <c r="F119" s="3"/>
       <c r="G119" s="3"/>
       <c r="H119" s="3"/>
       <c r="I119" s="3"/>
     </row>
-    <row r="120" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D120" s="6"/>
       <c r="E120" s="3"/>
       <c r="F120" s="3"/>
       <c r="G120" s="3"/>
       <c r="H120" s="3"/>
       <c r="I120" s="3"/>
     </row>
-    <row r="121" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D121" s="6"/>
       <c r="E121" s="3"/>
       <c r="F121" s="3"/>
       <c r="G121" s="3"/>
       <c r="H121" s="3"/>
       <c r="I121" s="3"/>
     </row>
-    <row r="122" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D122" s="6"/>
       <c r="E122" s="3"/>
       <c r="F122" s="3"/>
       <c r="G122" s="3"/>
       <c r="H122" s="3"/>
       <c r="I122" s="3"/>
     </row>
-    <row r="123" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D123" s="6"/>
       <c r="E123" s="3"/>
       <c r="F123" s="3"/>
       <c r="G123" s="3"/>
       <c r="H123" s="3"/>
       <c r="I123" s="3"/>
     </row>
-    <row r="124" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D124" s="6"/>
       <c r="E124" s="3"/>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
       <c r="H124" s="3"/>
       <c r="I124" s="3"/>
     </row>
-    <row r="125" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D125" s="6"/>
       <c r="E125" s="3"/>
       <c r="F125" s="3"/>
       <c r="G125" s="3"/>
       <c r="H125" s="3"/>
       <c r="I125" s="3"/>
     </row>
-    <row r="126" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="4:9" x14ac:dyDescent="0.3">
       <c r="E126" s="3"/>
       <c r="F126" s="3"/>
       <c r="G126" s="3"/>
       <c r="H126" s="3"/>
       <c r="I126" s="3"/>
     </row>
-    <row r="127" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="4:9" x14ac:dyDescent="0.3">
       <c r="E127" s="3"/>
       <c r="F127" s="3"/>
       <c r="G127" s="3"/>
       <c r="H127" s="3"/>
       <c r="I127" s="3"/>
     </row>
-    <row r="128" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="4:9" x14ac:dyDescent="0.3">
       <c r="E128" s="3"/>
       <c r="F128" s="3"/>
       <c r="G128" s="3"/>
@@ -2206,66 +3181,578 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I5" r:id="rId1" xr:uid="{C438D4D9-FF94-4163-9A83-2CC81A380B4A}"/>
-    <hyperlink ref="I9" r:id="rId2" xr:uid="{64D4F9BF-372A-4548-B3FA-BC075981D704}"/>
+    <hyperlink ref="M24" r:id="rId1" xr:uid="{34C8B530-A33E-4B7A-BE11-76AFC55CF670}"/>
+    <hyperlink ref="I5" r:id="rId2" xr:uid="{1D8D861E-CDBB-4089-A57B-B813ECEA241E}"/>
+    <hyperlink ref="I27" r:id="rId3" xr:uid="{DA931C00-4127-445C-A5B3-425638471C29}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="E6:G11"/>
+  <dimension ref="D4:I15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="21.6640625" customWidth="1"/>
+    <col min="5" max="5" width="23.88671875" customWidth="1"/>
     <col min="6" max="6" width="55.44140625" customWidth="1"/>
+    <col min="7" max="7" width="62.44140625" customWidth="1"/>
+    <col min="8" max="8" width="18.77734375" customWidth="1"/>
+    <col min="9" max="9" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="G6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" t="s">
+    <row r="4" spans="4:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="32">
+        <v>45272</v>
+      </c>
+      <c r="I4" s="33">
+        <v>45278</v>
+      </c>
+    </row>
+    <row r="5" spans="4:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D5" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="I5" s="34" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="4:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D6" s="25">
+        <v>1</v>
+      </c>
+      <c r="E6" s="26" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="8" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="F9" s="8"/>
-    </row>
-    <row r="10" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="F10" s="8"/>
-    </row>
-    <row r="11" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="F11" s="8"/>
+      <c r="F6" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="H6" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="I6" s="34"/>
+    </row>
+    <row r="7" spans="4:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D7" s="25">
+        <v>2</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="H7" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="I7" s="34"/>
+    </row>
+    <row r="8" spans="4:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D8" s="25">
+        <v>3</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="H8" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="I8" s="34"/>
+    </row>
+    <row r="9" spans="4:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D9" s="25">
+        <v>4</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="H9" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="I9" s="34"/>
+    </row>
+    <row r="10" spans="4:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D10" s="25">
+        <v>5</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="H10" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="I10" s="34"/>
+    </row>
+    <row r="11" spans="4:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D11" s="25">
+        <v>6</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="H11" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="I11" s="34"/>
+    </row>
+    <row r="12" spans="4:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D12" s="31">
+        <v>7</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="H12" s="37"/>
+      <c r="I12" s="34"/>
+    </row>
+    <row r="13" spans="4:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D13" s="25">
+        <v>8</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="G13" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="H13" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="I13" s="34"/>
+    </row>
+    <row r="14" spans="4:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D14" s="25">
+        <v>9</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="G14" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="H14" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="I14" s="34"/>
+    </row>
+    <row r="15" spans="4:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D15" s="25">
+        <v>10</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="35"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F7" r:id="rId1" xr:uid="{BA4D1F74-267E-4108-A3EC-6863B284671D}"/>
-    <hyperlink ref="F8" r:id="rId2" xr:uid="{19397755-44D9-4CAC-961A-54C61207C4B7}"/>
+    <hyperlink ref="G6" r:id="rId1" xr:uid="{6DEFDA65-6FBA-49A5-921E-D8A27984A55C}"/>
+    <hyperlink ref="G14" r:id="rId2" xr:uid="{80C327E7-E7CD-4424-8474-D7F1398C5D04}"/>
+    <hyperlink ref="G10" r:id="rId3" xr:uid="{25A8F732-3BA3-4C49-B649-96513759DF33}"/>
+    <hyperlink ref="G7" r:id="rId4" xr:uid="{E4496172-4595-45F7-9F32-C9C371854CEA}"/>
+    <hyperlink ref="G8" r:id="rId5" xr:uid="{8832B971-6092-42CE-8B7C-D5482EDC92AF}"/>
+    <hyperlink ref="G11" r:id="rId6" xr:uid="{B7AC1514-F5A7-4931-B67A-B42CA31F3908}"/>
+    <hyperlink ref="G9" r:id="rId7" xr:uid="{3151D5C8-582B-4268-8FDB-1662FC47D7A3}"/>
+    <hyperlink ref="G12" r:id="rId8" xr:uid="{4CB52882-0397-47FE-9A31-737ABC7DD473}"/>
+    <hyperlink ref="G13" r:id="rId9" xr:uid="{88D1AE7E-D8AA-49BE-B622-16677C461BC7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88A3B35A-D8AC-47FF-919D-F2263980152C}">
+  <dimension ref="E8:L22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16:L17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="6.33203125" customWidth="1"/>
+    <col min="6" max="6" width="29.21875" customWidth="1"/>
+    <col min="7" max="7" width="20.77734375" customWidth="1"/>
+    <col min="8" max="8" width="26.6640625" customWidth="1"/>
+    <col min="9" max="9" width="32.77734375" customWidth="1"/>
+    <col min="10" max="10" width="44.33203125" customWidth="1"/>
+    <col min="11" max="11" width="32.109375" customWidth="1"/>
+    <col min="12" max="12" width="32.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="8" spans="5:12" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E8" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="F8" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="G8" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="H8" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="I8" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="J8" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="K8" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="L8" s="46" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="9" spans="5:12" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E9" s="40">
+        <v>1</v>
+      </c>
+      <c r="F9" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="G9" s="40">
+        <v>9</v>
+      </c>
+      <c r="H9" s="40">
+        <v>7</v>
+      </c>
+      <c r="I9" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="J9" s="40" t="s">
+        <v>157</v>
+      </c>
+      <c r="K9" s="40" t="s">
+        <v>158</v>
+      </c>
+      <c r="L9" s="40" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="5:12" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E10" s="40">
+        <v>2</v>
+      </c>
+      <c r="F10" s="44" t="s">
+        <v>160</v>
+      </c>
+      <c r="G10" s="40">
+        <v>6</v>
+      </c>
+      <c r="H10" s="40">
+        <v>5</v>
+      </c>
+      <c r="I10" s="40" t="s">
+        <v>161</v>
+      </c>
+      <c r="J10" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="K10" s="40" t="s">
+        <v>163</v>
+      </c>
+      <c r="L10" s="40" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="11" spans="5:12" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E11" s="40">
+        <v>3</v>
+      </c>
+      <c r="F11" s="43" t="s">
+        <v>165</v>
+      </c>
+      <c r="G11" s="40">
+        <v>9</v>
+      </c>
+      <c r="H11" s="40">
+        <v>8</v>
+      </c>
+      <c r="I11" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="J11" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="K11" s="40" t="s">
+        <v>181</v>
+      </c>
+      <c r="L11" s="40" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="12" spans="5:12" ht="21" x14ac:dyDescent="0.3">
+      <c r="E12" s="40">
+        <v>4</v>
+      </c>
+      <c r="F12" s="42" t="s">
+        <v>166</v>
+      </c>
+      <c r="G12" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="I12" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="J12" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="K12" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="L12" s="40" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="5:12" ht="21" x14ac:dyDescent="0.3">
+      <c r="E13" s="40">
+        <v>5</v>
+      </c>
+      <c r="F13" s="42" t="s">
+        <v>167</v>
+      </c>
+      <c r="G13" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="H13" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="I13" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="J13" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="K13" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="L13" s="40" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="5:12" ht="21" x14ac:dyDescent="0.3">
+      <c r="E14" s="40">
+        <v>6</v>
+      </c>
+      <c r="F14" s="42" t="s">
+        <v>168</v>
+      </c>
+      <c r="G14" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="H14" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="I14" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="J14" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="K14" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="L14" s="40" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="5:12" ht="42" x14ac:dyDescent="0.3">
+      <c r="E15" s="40">
+        <v>7</v>
+      </c>
+      <c r="F15" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="G15" s="40">
+        <v>10</v>
+      </c>
+      <c r="H15" s="40">
+        <v>9</v>
+      </c>
+      <c r="I15" s="40" t="s">
+        <v>170</v>
+      </c>
+      <c r="J15" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="K15" s="40" t="s">
+        <v>169</v>
+      </c>
+      <c r="L15" s="40" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="16" spans="5:12" ht="21" x14ac:dyDescent="0.3">
+      <c r="E16" s="40">
+        <v>8</v>
+      </c>
+      <c r="F16" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="G16" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="H16" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="I16" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="J16" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="K16" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="L16" s="40" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="5:12" ht="21" x14ac:dyDescent="0.3">
+      <c r="E17" s="40">
+        <v>9</v>
+      </c>
+      <c r="F17" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="G17" s="40" t="s">
+        <v>178</v>
+      </c>
+      <c r="H17" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="I17" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="J17" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="K17" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="L17" s="40" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+    </row>
+    <row r="19" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="41"/>
+    </row>
+    <row r="20" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+    </row>
+    <row r="21" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+    </row>
+    <row r="22" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Updates.xlsx
+++ b/Updates.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Full Stack\JAVA\CORE\ODIGOS\Batch-1 Nov 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C407CB9A-A013-462E-B54B-2DD935C3E6E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5019A592-F25A-4540-B9BC-54A84012B1AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="268">
   <si>
     <t>Concepts</t>
   </si>
@@ -686,9 +686,6 @@
     <t>Stream API</t>
   </si>
   <si>
-    <t>students not available</t>
-  </si>
-  <si>
     <t>Mysql Queries</t>
   </si>
   <si>
@@ -708,6 +705,132 @@
   </si>
   <si>
     <t>JDBC Case Study</t>
+  </si>
+  <si>
+    <t>Day-65</t>
+  </si>
+  <si>
+    <t>Day-66</t>
+  </si>
+  <si>
+    <t>Day-67</t>
+  </si>
+  <si>
+    <t>Day-68</t>
+  </si>
+  <si>
+    <t>Day-69</t>
+  </si>
+  <si>
+    <t>Day-70</t>
+  </si>
+  <si>
+    <t>JDBC Bank App Completed</t>
+  </si>
+  <si>
+    <t>Review session</t>
+  </si>
+  <si>
+    <t>Case Study-1</t>
+  </si>
+  <si>
+    <t>ProductManagement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11th </t>
+  </si>
+  <si>
+    <t>13th</t>
+  </si>
+  <si>
+    <t>15th</t>
+  </si>
+  <si>
+    <t>18th</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13th </t>
+  </si>
+  <si>
+    <t>Day-71</t>
+  </si>
+  <si>
+    <t>Case study-2 revision and bus reservation case study allocation</t>
+  </si>
+  <si>
+    <t>Day-72</t>
+  </si>
+  <si>
+    <t>JPA with Hibernate</t>
+  </si>
+  <si>
+    <t>Day-73</t>
+  </si>
+  <si>
+    <t>JPA with Hibernate Persist</t>
+  </si>
+  <si>
+    <t>Day-74</t>
+  </si>
+  <si>
+    <t>JPA Crud Operations and JPQL</t>
+  </si>
+  <si>
+    <t>Day-75</t>
+  </si>
+  <si>
+    <t>JPA Relationships</t>
+  </si>
+  <si>
+    <t>Day-76</t>
+  </si>
+  <si>
+    <t>Day-77</t>
+  </si>
+  <si>
+    <t>Case Study -3 completed</t>
+  </si>
+  <si>
+    <t>Case Study -3 started</t>
+  </si>
+  <si>
+    <t>bus reservation case study allocation using JPA</t>
+  </si>
+  <si>
+    <t>Day-78</t>
+  </si>
+  <si>
+    <t>Spring Intro</t>
+  </si>
+  <si>
+    <t>6:30-7:30pm</t>
+  </si>
+  <si>
+    <t>Day-79</t>
+  </si>
+  <si>
+    <t>spring core</t>
+  </si>
+  <si>
+    <t>spring mvc</t>
+  </si>
+  <si>
+    <t>Spring core,spring jdbc</t>
+  </si>
+  <si>
+    <t>Day-80</t>
+  </si>
+  <si>
+    <t>Day-81</t>
+  </si>
+  <si>
+    <t>Day-82</t>
+  </si>
+  <si>
+    <t>Day-83</t>
+  </si>
+  <si>
+    <t>Day-84</t>
   </si>
 </sst>
 </file>
@@ -917,7 +1040,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1009,6 +1132,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1294,8 +1429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:M171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H68" sqref="H68"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D83" sqref="D83:D88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2159,64 +2294,64 @@
       <c r="I53" s="3"/>
     </row>
     <row r="54" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D54" s="6" t="s">
+      <c r="D54" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="E54" s="6">
+      <c r="E54" s="14">
         <v>45313</v>
       </c>
-      <c r="F54" s="3" t="s">
+      <c r="F54" s="23" t="s">
         <v>198</v>
       </c>
-      <c r="G54" s="5" t="s">
+      <c r="G54" s="19" t="s">
         <v>138</v>
       </c>
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
     </row>
     <row r="55" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D55" s="6" t="s">
+      <c r="D55" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="E55" s="6">
+      <c r="E55" s="14">
         <v>45314</v>
       </c>
-      <c r="F55" s="3" t="s">
+      <c r="F55" s="23" t="s">
         <v>198</v>
       </c>
-      <c r="G55" s="5" t="s">
+      <c r="G55" s="19" t="s">
         <v>138</v>
       </c>
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
     </row>
     <row r="56" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D56" s="6" t="s">
+      <c r="D56" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="E56" s="6">
+      <c r="E56" s="14">
         <v>45315</v>
       </c>
-      <c r="F56" s="3" t="s">
+      <c r="F56" s="23" t="s">
         <v>198</v>
       </c>
-      <c r="G56" s="5" t="s">
+      <c r="G56" s="19" t="s">
         <v>138</v>
       </c>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
     </row>
     <row r="57" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D57" s="6" t="s">
+      <c r="D57" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="E57" s="6">
+      <c r="E57" s="14">
         <v>45316</v>
       </c>
-      <c r="F57" s="3" t="s">
+      <c r="F57" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="G57" s="5" t="s">
+      <c r="G57" s="19" t="s">
         <v>138</v>
       </c>
       <c r="H57" s="3" t="s">
@@ -2328,7 +2463,7 @@
         <v>45330</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G64" s="5" t="s">
         <v>138</v>
@@ -2343,8 +2478,8 @@
       <c r="E65" s="6">
         <v>45331</v>
       </c>
-      <c r="F65" s="3" t="s">
-        <v>219</v>
+      <c r="F65" s="3">
+        <v>9</v>
       </c>
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
@@ -2358,7 +2493,7 @@
         <v>45334</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G66" s="5" t="s">
         <v>138</v>
@@ -2368,13 +2503,13 @@
     </row>
     <row r="67" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D67" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E67" s="6">
         <v>45335</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G67" s="5" t="s">
         <v>138</v>
@@ -2384,24 +2519,26 @@
     </row>
     <row r="68" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D68" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E68" s="6">
         <v>45338</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G68" s="5" t="s">
         <v>138</v>
       </c>
       <c r="H68" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="I68" s="3"/>
+    </row>
+    <row r="69" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D69" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="I68" s="3"/>
-    </row>
-    <row r="69" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D69" s="6"/>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
@@ -2409,7 +2546,9 @@
       <c r="I69" s="3"/>
     </row>
     <row r="70" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D70" s="6"/>
+      <c r="D70" s="6" t="s">
+        <v>227</v>
+      </c>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
@@ -2417,7 +2556,9 @@
       <c r="I70" s="3"/>
     </row>
     <row r="71" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D71" s="6"/>
+      <c r="D71" s="6" t="s">
+        <v>228</v>
+      </c>
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
@@ -2425,7 +2566,9 @@
       <c r="I71" s="3"/>
     </row>
     <row r="72" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D72" s="6"/>
+      <c r="D72" s="6" t="s">
+        <v>229</v>
+      </c>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
@@ -2433,111 +2576,215 @@
       <c r="I72" s="3"/>
     </row>
     <row r="73" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D73" s="6"/>
-      <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="3"/>
+      <c r="D73" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E73" s="6">
+        <v>45355</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>138</v>
+      </c>
       <c r="H73" s="3"/>
       <c r="I73" s="3"/>
     </row>
     <row r="74" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D74" s="6"/>
-      <c r="E74" s="3"/>
-      <c r="F74" s="3"/>
-      <c r="G74" s="3"/>
+      <c r="D74" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="E74" s="6">
+        <v>45356</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>138</v>
+      </c>
       <c r="H74" s="3"/>
       <c r="I74" s="3"/>
     </row>
     <row r="75" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D75" s="6"/>
-      <c r="E75" s="3"/>
-      <c r="F75" s="3"/>
-      <c r="G75" s="3"/>
+      <c r="D75" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="E75" s="6">
+        <v>45357</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="G75" s="5" t="s">
+        <v>138</v>
+      </c>
       <c r="H75" s="3"/>
       <c r="I75" s="3"/>
     </row>
     <row r="76" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D76" s="6"/>
-      <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
-      <c r="G76" s="3"/>
+      <c r="D76" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="E76" s="6">
+        <v>45358</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>138</v>
+      </c>
       <c r="H76" s="3"/>
       <c r="I76" s="3"/>
     </row>
     <row r="77" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D77" s="6"/>
-      <c r="E77" s="3"/>
-      <c r="F77" s="3"/>
-      <c r="G77" s="3"/>
+      <c r="D77" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="E77" s="6">
+        <v>45359</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>138</v>
+      </c>
       <c r="H77" s="3"/>
       <c r="I77" s="3"/>
     </row>
     <row r="78" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D78" s="6"/>
-      <c r="E78" s="3"/>
-      <c r="F78" s="3"/>
-      <c r="G78" s="3"/>
+      <c r="D78" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="E78" s="6">
+        <v>45363</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="G78" s="5" t="s">
+        <v>138</v>
+      </c>
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
     </row>
     <row r="79" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D79" s="6"/>
-      <c r="E79" s="3"/>
-      <c r="F79" s="3"/>
-      <c r="G79" s="3"/>
+      <c r="D79" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="E79" s="6">
+        <v>45364</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="G79" s="5" t="s">
+        <v>138</v>
+      </c>
       <c r="H79" s="3"/>
       <c r="I79" s="3"/>
     </row>
     <row r="80" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D80" s="6"/>
-      <c r="E80" s="3"/>
-      <c r="F80" s="3"/>
-      <c r="G80" s="3"/>
+      <c r="D80" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="E80" s="6">
+        <v>45365</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="G80" s="5" t="s">
+        <v>138</v>
+      </c>
       <c r="H80" s="3"/>
       <c r="I80" s="3"/>
     </row>
     <row r="81" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D81" s="6"/>
-      <c r="E81" s="3"/>
-      <c r="F81" s="3"/>
-      <c r="G81" s="3"/>
-      <c r="H81" s="3"/>
+      <c r="D81" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="E81" s="6">
+        <v>45366</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="G81" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>255</v>
+      </c>
       <c r="I81" s="3"/>
     </row>
     <row r="82" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D82" s="6"/>
-      <c r="E82" s="3"/>
-      <c r="F82" s="3"/>
-      <c r="G82" s="3"/>
+      <c r="D82" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="E82" s="6">
+        <v>45369</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>258</v>
+      </c>
       <c r="H82" s="3"/>
       <c r="I82" s="3"/>
     </row>
     <row r="83" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D83" s="6"/>
-      <c r="E83" s="3"/>
-      <c r="F83" s="3"/>
-      <c r="G83" s="3"/>
+      <c r="D83" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="E83" s="6">
+        <v>45370</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>258</v>
+      </c>
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
     </row>
     <row r="84" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D84" s="6"/>
-      <c r="E84" s="3"/>
-      <c r="F84" s="3"/>
+      <c r="D84" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="E84" s="6">
+        <v>45371</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>262</v>
+      </c>
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
       <c r="I84" s="3"/>
     </row>
     <row r="85" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D85" s="6"/>
-      <c r="E85" s="3"/>
-      <c r="F85" s="3"/>
+      <c r="D85" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="E85" s="6">
+        <v>45372</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>261</v>
+      </c>
       <c r="G85" s="3"/>
       <c r="H85" s="3"/>
       <c r="I85" s="3"/>
     </row>
     <row r="86" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D86" s="6"/>
+      <c r="D86" s="6" t="s">
+        <v>265</v>
+      </c>
       <c r="E86" s="3"/>
       <c r="F86" s="3"/>
       <c r="G86" s="3"/>
@@ -2545,7 +2792,9 @@
       <c r="I86" s="3"/>
     </row>
     <row r="87" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D87" s="6"/>
+      <c r="D87" s="6" t="s">
+        <v>266</v>
+      </c>
       <c r="E87" s="3"/>
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
@@ -2553,7 +2802,9 @@
       <c r="I87" s="3"/>
     </row>
     <row r="88" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D88" s="6"/>
+      <c r="D88" s="6" t="s">
+        <v>267</v>
+      </c>
       <c r="E88" s="3"/>
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
@@ -3192,22 +3443,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="D4:I15"/>
+  <dimension ref="D3:K15"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="23.88671875" customWidth="1"/>
-    <col min="6" max="6" width="55.44140625" customWidth="1"/>
-    <col min="7" max="7" width="62.44140625" customWidth="1"/>
-    <col min="8" max="8" width="18.77734375" customWidth="1"/>
-    <col min="9" max="9" width="16.109375" customWidth="1"/>
+    <col min="5" max="5" width="52.6640625" customWidth="1"/>
+    <col min="6" max="6" width="55.44140625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="0.44140625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="18.77734375" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="0.109375" customWidth="1"/>
+    <col min="10" max="10" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="J3" s="49" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="4" spans="4:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D4" s="24"/>
       <c r="E4" s="24"/>
       <c r="F4" s="24"/>
@@ -3218,8 +3475,11 @@
       <c r="I4" s="33">
         <v>45278</v>
       </c>
-    </row>
-    <row r="5" spans="4:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J4" s="50">
+        <v>45357</v>
+      </c>
+    </row>
+    <row r="5" spans="4:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D5" s="25" t="s">
         <v>139</v>
       </c>
@@ -3238,8 +3498,11 @@
       <c r="I5" s="34" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="6" spans="4:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J5" s="25" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="6" spans="4:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D6" s="25">
         <v>1</v>
       </c>
@@ -3256,8 +3519,14 @@
         <v>140</v>
       </c>
       <c r="I6" s="34"/>
-    </row>
-    <row r="7" spans="4:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J6" s="47">
+        <v>0.2</v>
+      </c>
+      <c r="K6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="7" spans="4:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D7" s="25">
         <v>2</v>
       </c>
@@ -3274,8 +3543,14 @@
         <v>141</v>
       </c>
       <c r="I7" s="34"/>
-    </row>
-    <row r="8" spans="4:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J7" s="47">
+        <v>0.2</v>
+      </c>
+      <c r="K7" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="8" spans="4:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D8" s="25">
         <v>3</v>
       </c>
@@ -3292,8 +3567,14 @@
         <v>134</v>
       </c>
       <c r="I8" s="34"/>
-    </row>
-    <row r="9" spans="4:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J8" s="47">
+        <v>0.6</v>
+      </c>
+      <c r="K8" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="9" spans="4:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D9" s="25">
         <v>4</v>
       </c>
@@ -3310,8 +3591,14 @@
         <v>147</v>
       </c>
       <c r="I9" s="34"/>
-    </row>
-    <row r="10" spans="4:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J9" s="47">
+        <v>0</v>
+      </c>
+      <c r="K9" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="10" spans="4:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D10" s="25">
         <v>5</v>
       </c>
@@ -3328,8 +3615,14 @@
         <v>145</v>
       </c>
       <c r="I10" s="34"/>
-    </row>
-    <row r="11" spans="4:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J10" s="47">
+        <v>0</v>
+      </c>
+      <c r="K10" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="11" spans="4:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D11" s="25">
         <v>6</v>
       </c>
@@ -3346,8 +3639,14 @@
         <v>148</v>
       </c>
       <c r="I11" s="34"/>
-    </row>
-    <row r="12" spans="4:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J11" s="47">
+        <v>0</v>
+      </c>
+      <c r="K11" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="12" spans="4:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D12" s="31">
         <v>7</v>
       </c>
@@ -3362,8 +3661,9 @@
       </c>
       <c r="H12" s="37"/>
       <c r="I12" s="34"/>
-    </row>
-    <row r="13" spans="4:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J12" s="48"/>
+    </row>
+    <row r="13" spans="4:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D13" s="25">
         <v>8</v>
       </c>
@@ -3380,8 +3680,9 @@
         <v>142</v>
       </c>
       <c r="I13" s="34"/>
-    </row>
-    <row r="14" spans="4:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J13" s="48"/>
+    </row>
+    <row r="14" spans="4:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D14" s="25">
         <v>9</v>
       </c>
@@ -3398,8 +3699,14 @@
         <v>133</v>
       </c>
       <c r="I14" s="34"/>
-    </row>
-    <row r="15" spans="4:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J14" s="47">
+        <v>0</v>
+      </c>
+      <c r="K14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="15" spans="4:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D15" s="25">
         <v>10</v>
       </c>
@@ -3410,8 +3717,10 @@
       <c r="G15" s="35"/>
       <c r="H15" s="38"/>
       <c r="I15" s="35"/>
+      <c r="J15" s="48"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="G6" r:id="rId1" xr:uid="{6DEFDA65-6FBA-49A5-921E-D8A27984A55C}"/>
     <hyperlink ref="G14" r:id="rId2" xr:uid="{80C327E7-E7CD-4424-8474-D7F1398C5D04}"/>
@@ -3431,8 +3740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88A3B35A-D8AC-47FF-919D-F2263980152C}">
   <dimension ref="E8:L22"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16:L17"/>
+    <sheetView topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
